--- a/database/industries/darou/dejaber/cost/quarterly.xlsx
+++ b/database/industries/darou/dejaber/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dejaber\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92169433-4385-411C-8491-7406BE81E768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دجابر-داروسازی‌ جابرابن‌حیان‌</t>
@@ -33,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -48,6 +46,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -222,6 +223,42 @@
     <t>اطلاعات بهای تمام شده منوط به ترکیب تولید و فروش و نرخ ارز و مواد اولیه می باشد که بر این اساس پیش بینی میگردد کل عوامل بهای تمام شده (مود اولیه ، دستمزد، سربار) در سال 1398  17% رشد خواهد داشت.</t>
   </si>
   <si>
+    <t>دوره 3 ماهه منتهی به 1397/12/29</t>
+  </si>
+  <si>
+    <t>اطلاعات بهای تمام شده منوط به ترکیب تولید و فروش و نرخ ارز و مواد اولیه می باشد که بر این اساس پیش بینی میگردد کل عوامل بهای تمام شده (مواد ، دستمزد ، سربار) در سال 97، 16% رشد خواهد داشت.</t>
+  </si>
+  <si>
+    <t>دوره 3 ماهه منتهی به 1398/03/31</t>
+  </si>
+  <si>
+    <t>0اطلاعات بهای تمام شده 3ماهه سال 98 بر اساس مصوبه شورای عالی کار افزایش خواهد یافت . سایر موارد متاثر از روند تورم عمومی و نرخ ارز می باشد.</t>
+  </si>
+  <si>
+    <t>دوره 6 ماهه منتهی به 1397/12/29</t>
+  </si>
+  <si>
+    <t>پیش بینی میگردد کل عوامل بهای تمام شده (مواد دستمزد، سربار ) در سال 97، 16% رشد خواهد داشت.</t>
+  </si>
+  <si>
+    <t>پیش بینی می گردد کل عوامل بهای تمام شده (مواد ، دستمزد ، سرباز) در سال 97 ، 16% رشد خواهد داشت .</t>
+  </si>
+  <si>
+    <t>اطلاعات بهای تمام شده منوط به ترکیب تولید و فروش و نرخ ارز و مواد اولیه میباشد که بر این اساس پیش بینی می گردد کل عوامل بهای تمام شده (مواد ، دستمزد ، سرباز) در سال 97 ، 16% رشد خواهد داشت .</t>
+  </si>
+  <si>
+    <t>دوره 6 ماهه منتهی به 1399/12/30</t>
+  </si>
+  <si>
+    <t>اطلاعات بھای تمام شده منوط به ترکیب تولید و فروش و نرخ ارز مواد اولیه می باشد که بر این اساس پیش بینی میگردد کل عوامل بھای تمام شده (مواد، دستمزد، سربار) در سال 1399 نسبت به سال گذشته 17% رشد خواهد داشت.</t>
+  </si>
+  <si>
+    <t>دوره 12 ماهه منتهی به 1398/12/29</t>
+  </si>
+  <si>
+    <t>اطلاعات بهای تمام شده منوط به ترکیب تولید و فروش و نرخ ارز و مواد اولیه می باشد که بر این اساس پیش بینی میگردد کل عوامل بهای تمام شده (مواد ، دستمزد، سربار) در سال 1398 ،17% خواهد داشت.</t>
+  </si>
+  <si>
     <t>دوره 3 ماهه منتهی به 1398/12/29</t>
   </si>
   <si>
@@ -232,36 +269,6 @@
   </si>
   <si>
     <t>اطلاعات بهای تمام شده منوط به ترکیب تولید و فروش و نرخ ارز و مواد اولیه می باشد که بر این اساس پیش بینی میگردد کل عوامل بهای تمام شده (مواد ،دستمزد ،سربار) در سال 1399 نسبت به سال گذشته 17% رشد خواهد داشت.</t>
-  </si>
-  <si>
-    <t>دوره 3 ماهه منتهی به 1397/12/29</t>
-  </si>
-  <si>
-    <t>اطلاعات بهای تمام شده منوط به ترکیب تولید و فروش و نرخ ارز و مواد اولیه می باشد که بر این اساس پیش بینی میگردد کل عوامل بهای تمام شده (مواد ، دستمزد ، سربار) در سال 97، 16% رشد خواهد داشت.</t>
-  </si>
-  <si>
-    <t>دوره 3 ماهه منتهی به 1398/03/31</t>
-  </si>
-  <si>
-    <t>0اطلاعات بهای تمام شده 3ماهه سال 98 بر اساس مصوبه شورای عالی کار افزایش خواهد یافت . سایر موارد متاثر از روند تورم عمومی و نرخ ارز می باشد.</t>
-  </si>
-  <si>
-    <t>دوره 6 ماهه منتهی به 1397/12/29</t>
-  </si>
-  <si>
-    <t>پیش بینی میگردد کل عوامل بهای تمام شده (مواد دستمزد، سربار ) در سال 97، 16% رشد خواهد داشت.</t>
-  </si>
-  <si>
-    <t>پیش بینی می گردد کل عوامل بهای تمام شده (مواد ، دستمزد ، سرباز) در سال 97 ، 16% رشد خواهد داشت .</t>
-  </si>
-  <si>
-    <t>اطلاعات بهای تمام شده منوط به ترکیب تولید و فروش و نرخ ارز و مواد اولیه میباشد که بر این اساس پیش بینی می گردد کل عوامل بهای تمام شده (مواد ، دستمزد ، سرباز) در سال 97 ، 16% رشد خواهد داشت .</t>
-  </si>
-  <si>
-    <t>دوره 6 ماهه منتهی به 1399/12/30</t>
-  </si>
-  <si>
-    <t>اطلاعات بھای تمام شده منوط به ترکیب تولید و فروش و نرخ ارز مواد اولیه می باشد که بر این اساس پیش بینی میگردد کل عوامل بھای تمام شده (مواد، دستمزد، سربار) در سال 1399 نسبت به سال گذشته 17% رشد خواهد داشت.</t>
   </si>
   <si>
     <t>دوره 9 ماهه منتهی به 1399/12/30</t>
@@ -288,7 +295,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,7 +465,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -470,7 +477,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -517,6 +524,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -552,6 +576,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -703,17 +744,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I210"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -723,7 +764,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -735,7 +776,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -747,7 +788,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -757,7 +798,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -769,7 +810,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -781,7 +822,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -791,7 +832,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -813,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -823,95 +864,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>902839</v>
+        <v>738747</v>
       </c>
       <c r="F10" s="9">
-        <v>738747</v>
+        <v>616337</v>
       </c>
       <c r="G10" s="9">
-        <v>616337</v>
+        <v>535838</v>
       </c>
       <c r="H10" s="9">
-        <v>535838</v>
+        <v>833427</v>
       </c>
       <c r="I10" s="9">
-        <v>833427</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1392594</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>68964</v>
+        <v>66912</v>
       </c>
       <c r="F11" s="11">
-        <v>66912</v>
+        <v>69414</v>
       </c>
       <c r="G11" s="11">
-        <v>69414</v>
+        <v>131972</v>
       </c>
       <c r="H11" s="11">
-        <v>131972</v>
+        <v>97535</v>
       </c>
       <c r="I11" s="11">
-        <v>97535</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>110373</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>192049</v>
+        <v>184460</v>
       </c>
       <c r="F12" s="9">
-        <v>184460</v>
+        <v>224018</v>
       </c>
       <c r="G12" s="9">
-        <v>224018</v>
+        <v>265460</v>
       </c>
       <c r="H12" s="9">
-        <v>265460</v>
+        <v>304462</v>
       </c>
       <c r="I12" s="9">
-        <v>304462</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>284855</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1163852</v>
+        <v>990119</v>
       </c>
       <c r="F13" s="13">
-        <v>990119</v>
+        <v>909769</v>
       </c>
       <c r="G13" s="13">
-        <v>909769</v>
+        <v>933270</v>
       </c>
       <c r="H13" s="13">
-        <v>933270</v>
+        <v>1235424</v>
       </c>
       <c r="I13" s="13">
-        <v>1235424</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1787822</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -921,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="9">
+        <v>-1100</v>
+      </c>
+      <c r="G14" s="9">
         <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>-1100</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -933,64 +974,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1163852</v>
+        <v>990119</v>
       </c>
       <c r="F15" s="13">
-        <v>990119</v>
+        <v>908669</v>
       </c>
       <c r="G15" s="13">
-        <v>908669</v>
+        <v>933270</v>
       </c>
       <c r="H15" s="13">
-        <v>933270</v>
+        <v>1235424</v>
       </c>
       <c r="I15" s="13">
-        <v>1235424</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1787822</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-25909</v>
+        <v>87558</v>
       </c>
       <c r="F16" s="9">
-        <v>87558</v>
+        <v>-159491</v>
       </c>
       <c r="G16" s="9">
-        <v>-159491</v>
+        <v>-104505</v>
       </c>
       <c r="H16" s="9">
-        <v>-104505</v>
+        <v>304398</v>
       </c>
       <c r="I16" s="9">
-        <v>304398</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-79456</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11">
         <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="11">
-        <v>1</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
@@ -999,139 +1040,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1137943</v>
+        <v>1077676</v>
       </c>
       <c r="F18" s="15">
-        <v>1077676</v>
+        <v>749179</v>
       </c>
       <c r="G18" s="15">
-        <v>749179</v>
+        <v>828765</v>
       </c>
       <c r="H18" s="15">
-        <v>828765</v>
+        <v>1539822</v>
       </c>
       <c r="I18" s="15">
-        <v>1539822</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1708366</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>-1332</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>37320</v>
       </c>
       <c r="G19" s="11">
-        <v>37320</v>
+        <v>40383</v>
       </c>
       <c r="H19" s="11">
-        <v>40383</v>
+        <v>45602</v>
       </c>
       <c r="I19" s="11">
-        <v>45602</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>170313</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>75922</v>
+        <v>-37320</v>
       </c>
       <c r="F20" s="9">
-        <v>-37320</v>
+        <v>-40382</v>
       </c>
       <c r="G20" s="9">
-        <v>-40383</v>
+        <v>-45602</v>
       </c>
       <c r="H20" s="9">
-        <v>-45602</v>
+        <v>-170313</v>
       </c>
       <c r="I20" s="9">
-        <v>-170313</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-212085</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1212533</v>
+        <v>1040356</v>
       </c>
       <c r="F21" s="13">
-        <v>1040356</v>
+        <v>758646</v>
       </c>
       <c r="G21" s="13">
-        <v>758646</v>
+        <v>823546</v>
       </c>
       <c r="H21" s="13">
-        <v>823546</v>
+        <v>1415111</v>
       </c>
       <c r="I21" s="13">
-        <v>1415111</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1666593</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>43333</v>
+        <v>-23002</v>
       </c>
       <c r="F22" s="9">
-        <v>-23002</v>
+        <v>-2233</v>
       </c>
       <c r="G22" s="9">
-        <v>-2233</v>
+        <v>-10847</v>
       </c>
       <c r="H22" s="9">
-        <v>-10847</v>
+        <v>10846</v>
       </c>
       <c r="I22" s="9">
-        <v>10846</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-16346</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1255866</v>
+        <v>1017354</v>
       </c>
       <c r="F23" s="13">
-        <v>1017354</v>
+        <v>756413</v>
       </c>
       <c r="G23" s="13">
-        <v>756413</v>
+        <v>812699</v>
       </c>
       <c r="H23" s="13">
-        <v>812699</v>
+        <v>1425957</v>
       </c>
       <c r="I23" s="13">
-        <v>1425957</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1650247</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1141,7 +1182,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1151,7 +1192,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1161,7 +1202,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1183,7 +1224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1193,7 +1234,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1217,7 +1258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1228,20 +1269,20 @@
       <c r="E30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>26</v>
+      <c r="F30" s="11">
+        <v>2468910</v>
       </c>
       <c r="G30" s="11">
-        <v>2468910</v>
+        <v>2646030</v>
       </c>
       <c r="H30" s="11">
-        <v>2646030</v>
+        <v>2646740</v>
       </c>
       <c r="I30" s="11">
-        <v>2646740</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8588</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>29</v>
       </c>
@@ -1252,20 +1293,20 @@
       <c r="E31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>26</v>
+      <c r="F31" s="9">
+        <v>103903</v>
       </c>
       <c r="G31" s="9">
-        <v>103903</v>
+        <v>95458</v>
       </c>
       <c r="H31" s="9">
-        <v>95458</v>
+        <v>88193</v>
       </c>
       <c r="I31" s="9">
-        <v>88193</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>260378</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>30</v>
       </c>
@@ -1274,22 +1315,22 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>501962</v>
+        <v>99571254</v>
       </c>
       <c r="F32" s="11">
-        <v>99571254</v>
+        <v>385135</v>
       </c>
       <c r="G32" s="11">
-        <v>385135</v>
+        <v>380590</v>
       </c>
       <c r="H32" s="11">
-        <v>380590</v>
+        <v>365415</v>
       </c>
       <c r="I32" s="11">
-        <v>365415</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>122508</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
@@ -1311,7 +1352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>32</v>
       </c>
@@ -1320,22 +1361,22 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>199880109</v>
+        <v>145906309</v>
       </c>
       <c r="F34" s="11">
-        <v>145906309</v>
+        <v>219246793</v>
       </c>
       <c r="G34" s="11">
-        <v>219246793</v>
+        <v>215238054</v>
       </c>
       <c r="H34" s="11">
-        <v>215238054</v>
+        <v>194324604</v>
       </c>
       <c r="I34" s="11">
-        <v>194324604</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>184171266</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>34</v>
       </c>
@@ -1359,29 +1400,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>200382071</v>
+        <v>245477563</v>
       </c>
       <c r="F36" s="13">
-        <v>245477563</v>
+        <v>222204741</v>
       </c>
       <c r="G36" s="13">
-        <v>222204741</v>
+        <v>218360132</v>
       </c>
       <c r="H36" s="13">
-        <v>218360132</v>
+        <v>197424952</v>
       </c>
       <c r="I36" s="13">
-        <v>197424952</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>184562740</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1391,7 +1432,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1401,7 +1442,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1411,7 +1452,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>35</v>
       </c>
@@ -1433,7 +1474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1443,7 +1484,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>24</v>
       </c>
@@ -1451,8 +1492,8 @@
         <v>25</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9">
-        <v>177051</v>
+      <c r="E42" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>26</v>
@@ -1467,7 +1508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>27</v>
       </c>
@@ -1475,23 +1516,23 @@
         <v>28</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>26</v>
+      <c r="E43" s="11">
+        <v>83605</v>
       </c>
       <c r="F43" s="11">
-        <v>83605</v>
+        <v>196445</v>
       </c>
       <c r="G43" s="11">
-        <v>196445</v>
+        <v>940</v>
       </c>
       <c r="H43" s="11">
-        <v>940</v>
+        <v>7482</v>
       </c>
       <c r="I43" s="11">
-        <v>7482</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16386122</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>29</v>
       </c>
@@ -1499,23 +1540,23 @@
         <v>25</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>26</v>
+      <c r="E44" s="9">
+        <v>208664</v>
       </c>
       <c r="F44" s="9">
-        <v>208664</v>
+        <v>6636</v>
       </c>
       <c r="G44" s="9">
-        <v>6636</v>
+        <v>46727</v>
       </c>
       <c r="H44" s="9">
-        <v>46727</v>
+        <v>40615</v>
       </c>
       <c r="I44" s="9">
-        <v>40615</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33674543</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>30</v>
       </c>
@@ -1524,22 +1565,22 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>222649</v>
+        <v>-74218</v>
       </c>
       <c r="F45" s="11">
-        <v>-74218</v>
+        <v>100092</v>
       </c>
       <c r="G45" s="11">
-        <v>100092</v>
+        <v>97598</v>
       </c>
       <c r="H45" s="11">
-        <v>97598</v>
+        <v>58119</v>
       </c>
       <c r="I45" s="11">
-        <v>58119</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>101057529</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>31</v>
       </c>
@@ -1561,7 +1602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>32</v>
       </c>
@@ -1570,22 +1611,22 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>128720497</v>
+        <v>49460361</v>
       </c>
       <c r="F47" s="11">
-        <v>49460361</v>
+        <v>76907386</v>
       </c>
       <c r="G47" s="11">
-        <v>76907386</v>
+        <v>34023054</v>
       </c>
       <c r="H47" s="11">
-        <v>34023054</v>
+        <v>60444945</v>
       </c>
       <c r="I47" s="11">
-        <v>60444945</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33793152</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>34</v>
       </c>
@@ -1609,29 +1650,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>129120197</v>
+        <v>49678412</v>
       </c>
       <c r="F49" s="13">
-        <v>49678412</v>
+        <v>77210559</v>
       </c>
       <c r="G49" s="13">
-        <v>77210559</v>
+        <v>34168319</v>
       </c>
       <c r="H49" s="13">
-        <v>34168319</v>
+        <v>60551161</v>
       </c>
       <c r="I49" s="13">
-        <v>60551161</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>184911346</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1641,7 +1682,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1651,7 +1692,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1661,7 +1702,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>36</v>
       </c>
@@ -1683,7 +1724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1693,7 +1734,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>24</v>
       </c>
@@ -1701,8 +1742,8 @@
         <v>25</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9">
-        <v>146764</v>
+      <c r="E55" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>26</v>
@@ -1717,7 +1758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>27</v>
       </c>
@@ -1725,23 +1766,23 @@
         <v>28</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>26</v>
+      <c r="E56" s="11">
+        <v>89354</v>
       </c>
       <c r="F56" s="11">
-        <v>89354</v>
+        <v>19325</v>
       </c>
       <c r="G56" s="11">
-        <v>19325</v>
+        <v>230</v>
       </c>
       <c r="H56" s="11">
-        <v>230</v>
+        <v>-184</v>
       </c>
       <c r="I56" s="11">
-        <v>-184</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16394598</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>29</v>
       </c>
@@ -1749,23 +1790,23 @@
         <v>25</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>26</v>
+      <c r="E57" s="9">
+        <v>176790</v>
       </c>
       <c r="F57" s="9">
-        <v>176790</v>
+        <v>15082</v>
       </c>
       <c r="G57" s="9">
-        <v>15082</v>
+        <v>53992</v>
       </c>
       <c r="H57" s="9">
-        <v>53992</v>
+        <v>84488</v>
       </c>
       <c r="I57" s="9">
-        <v>84488</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33833921</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>30</v>
       </c>
@@ -1774,22 +1815,22 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>245387</v>
+        <v>-52158</v>
       </c>
       <c r="F58" s="11">
-        <v>-52158</v>
+        <v>104638</v>
       </c>
       <c r="G58" s="11">
-        <v>104638</v>
+        <v>112773</v>
       </c>
       <c r="H58" s="11">
-        <v>112773</v>
+        <v>119232</v>
       </c>
       <c r="I58" s="11">
-        <v>119232</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>101080638</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>31</v>
       </c>
@@ -1811,7 +1852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>32</v>
       </c>
@@ -1820,22 +1861,22 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>83530238</v>
+        <v>72809277</v>
       </c>
       <c r="F60" s="11">
-        <v>72809277</v>
+        <v>80916125</v>
       </c>
       <c r="G60" s="11">
-        <v>80916125</v>
+        <v>54936504</v>
       </c>
       <c r="H60" s="11">
-        <v>54936504</v>
+        <v>71358565</v>
       </c>
       <c r="I60" s="11">
-        <v>71358565</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-94702332</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>34</v>
       </c>
@@ -1859,29 +1900,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>83922389</v>
+        <v>73023263</v>
       </c>
       <c r="F62" s="13">
-        <v>73023263</v>
+        <v>81055170</v>
       </c>
       <c r="G62" s="13">
-        <v>81055170</v>
+        <v>55103499</v>
       </c>
       <c r="H62" s="13">
-        <v>55103499</v>
+        <v>71562101</v>
       </c>
       <c r="I62" s="13">
-        <v>71562101</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>56606825</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1891,7 +1932,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1901,7 +1942,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1911,7 +1952,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>37</v>
       </c>
@@ -1933,7 +1974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1943,7 +1984,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>24</v>
       </c>
@@ -1951,8 +1992,8 @@
         <v>25</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="9">
-        <v>102316</v>
+      <c r="E68" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>26</v>
@@ -1967,7 +2008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>27</v>
       </c>
@@ -1975,23 +2016,23 @@
         <v>28</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>26</v>
+      <c r="E69" s="11">
+        <v>2468910</v>
       </c>
       <c r="F69" s="11">
-        <v>2468910</v>
+        <v>2646030</v>
       </c>
       <c r="G69" s="11">
-        <v>2646030</v>
+        <v>2646740</v>
       </c>
       <c r="H69" s="11">
-        <v>2646740</v>
+        <v>8588</v>
       </c>
       <c r="I69" s="11">
-        <v>8588</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>29</v>
       </c>
@@ -1999,23 +2040,23 @@
         <v>25</v>
       </c>
       <c r="D70" s="9"/>
-      <c r="E70" s="9" t="s">
-        <v>26</v>
+      <c r="E70" s="9">
+        <v>103903</v>
       </c>
       <c r="F70" s="9">
-        <v>103903</v>
+        <v>95457</v>
       </c>
       <c r="G70" s="9">
-        <v>95457</v>
+        <v>88193</v>
       </c>
       <c r="H70" s="9">
-        <v>88193</v>
+        <v>260378</v>
       </c>
       <c r="I70" s="9">
-        <v>260378</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>30</v>
       </c>
@@ -2024,22 +2065,22 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>99571254</v>
+        <v>385135</v>
       </c>
       <c r="F71" s="11">
-        <v>385135</v>
+        <v>380590</v>
       </c>
       <c r="G71" s="11">
-        <v>380590</v>
+        <v>365415</v>
       </c>
       <c r="H71" s="11">
-        <v>365415</v>
+        <v>122508</v>
       </c>
       <c r="I71" s="11">
-        <v>122508</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>99399</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>31</v>
       </c>
@@ -2061,7 +2102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>32</v>
       </c>
@@ -2070,22 +2111,22 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>145906309</v>
+        <v>219246793</v>
       </c>
       <c r="F73" s="11">
-        <v>219246793</v>
+        <v>215238054</v>
       </c>
       <c r="G73" s="11">
-        <v>215238054</v>
+        <v>194324604</v>
       </c>
       <c r="H73" s="11">
-        <v>194324604</v>
+        <v>184171266</v>
       </c>
       <c r="I73" s="11">
-        <v>184171266</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>312666750</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>34</v>
       </c>
@@ -2109,29 +2150,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>245579879</v>
+        <v>222204741</v>
       </c>
       <c r="F75" s="13">
-        <v>222204741</v>
+        <v>218360131</v>
       </c>
       <c r="G75" s="13">
-        <v>218360131</v>
+        <v>197424952</v>
       </c>
       <c r="H75" s="13">
-        <v>197424952</v>
+        <v>184562740</v>
       </c>
       <c r="I75" s="13">
-        <v>184562740</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>312867261</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2141,7 +2182,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2151,7 +2192,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2161,7 +2202,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>38</v>
       </c>
@@ -2183,7 +2224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2193,7 +2234,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>24</v>
       </c>
@@ -2217,7 +2258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>27</v>
       </c>
@@ -2228,20 +2269,20 @@
       <c r="E82" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F82" s="11" t="s">
-        <v>26</v>
+      <c r="F82" s="11">
+        <v>38200</v>
       </c>
       <c r="G82" s="11">
-        <v>38200</v>
+        <v>50169</v>
       </c>
       <c r="H82" s="11">
-        <v>50169</v>
+        <v>50514</v>
       </c>
       <c r="I82" s="11">
-        <v>50514</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>52491</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>29</v>
       </c>
@@ -2252,20 +2293,20 @@
       <c r="E83" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F83" s="9" t="s">
-        <v>26</v>
+      <c r="F83" s="9">
+        <v>257649</v>
       </c>
       <c r="G83" s="9">
-        <v>257649</v>
+        <v>267390</v>
       </c>
       <c r="H83" s="9">
-        <v>267390</v>
+        <v>326061</v>
       </c>
       <c r="I83" s="9">
-        <v>326061</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>251480</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>30</v>
       </c>
@@ -2274,22 +2315,22 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>606757</v>
+        <v>313420</v>
       </c>
       <c r="F84" s="11">
-        <v>313420</v>
+        <v>185212</v>
       </c>
       <c r="G84" s="11">
-        <v>185212</v>
+        <v>209840</v>
       </c>
       <c r="H84" s="11">
-        <v>209840</v>
+        <v>230498</v>
       </c>
       <c r="I84" s="11">
-        <v>230498</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>165267</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>31</v>
       </c>
@@ -2313,7 +2354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>32</v>
       </c>
@@ -2322,22 +2363,22 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>485150</v>
+        <v>546535</v>
       </c>
       <c r="F86" s="11">
-        <v>546535</v>
+        <v>754515</v>
       </c>
       <c r="G86" s="11">
-        <v>754515</v>
+        <v>889943</v>
       </c>
       <c r="H86" s="11">
-        <v>889943</v>
+        <v>1119932</v>
       </c>
       <c r="I86" s="11">
-        <v>1119932</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1036598</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>34</v>
       </c>
@@ -2361,29 +2402,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>1091907</v>
+        <v>859955</v>
       </c>
       <c r="F88" s="13">
-        <v>859955</v>
+        <v>1235576</v>
       </c>
       <c r="G88" s="13">
-        <v>1235576</v>
+        <v>1417342</v>
       </c>
       <c r="H88" s="13">
-        <v>1417342</v>
+        <v>1727005</v>
       </c>
       <c r="I88" s="13">
-        <v>1727005</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1505836</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2393,7 +2434,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2403,7 +2444,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2413,7 +2454,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>40</v>
       </c>
@@ -2435,7 +2476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2445,7 +2486,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>24</v>
       </c>
@@ -2453,8 +2494,8 @@
         <v>39</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="9">
-        <v>729612</v>
+      <c r="E94" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>26</v>
@@ -2469,7 +2510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>27</v>
       </c>
@@ -2477,23 +2518,23 @@
         <v>39</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11" t="s">
-        <v>26</v>
+      <c r="E95" s="11">
+        <v>17582</v>
       </c>
       <c r="F95" s="11">
-        <v>17582</v>
+        <v>16750</v>
       </c>
       <c r="G95" s="11">
-        <v>16750</v>
+        <v>455</v>
       </c>
       <c r="H95" s="11">
-        <v>455</v>
+        <v>5363</v>
       </c>
       <c r="I95" s="11">
-        <v>5363</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>496499</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>29</v>
       </c>
@@ -2501,23 +2542,23 @@
         <v>39</v>
       </c>
       <c r="D96" s="9"/>
-      <c r="E96" s="9" t="s">
-        <v>26</v>
+      <c r="E96" s="9">
+        <v>842187</v>
       </c>
       <c r="F96" s="9">
-        <v>842187</v>
+        <v>106603</v>
       </c>
       <c r="G96" s="9">
-        <v>106603</v>
+        <v>332840</v>
       </c>
       <c r="H96" s="9">
-        <v>332840</v>
+        <v>318020</v>
       </c>
       <c r="I96" s="9">
-        <v>318020</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-188543</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>30</v>
       </c>
@@ -2526,22 +2567,22 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>-340617</v>
+        <v>253997</v>
       </c>
       <c r="F97" s="11">
-        <v>253997</v>
+        <v>211844</v>
       </c>
       <c r="G97" s="11">
-        <v>211844</v>
+        <v>117193</v>
       </c>
       <c r="H97" s="11">
-        <v>117193</v>
+        <v>64405</v>
       </c>
       <c r="I97" s="11">
-        <v>64405</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1093670</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>31</v>
       </c>
@@ -2565,7 +2606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>32</v>
       </c>
@@ -2574,22 +2615,22 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>580586</v>
+        <v>431520</v>
       </c>
       <c r="F99" s="11">
-        <v>431520</v>
+        <v>462906</v>
       </c>
       <c r="G99" s="11">
-        <v>462906</v>
+        <v>395013</v>
       </c>
       <c r="H99" s="11">
-        <v>395013</v>
+        <v>224469</v>
       </c>
       <c r="I99" s="11">
-        <v>224469</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-47939</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>34</v>
       </c>
@@ -2613,29 +2654,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
-        <v>969581</v>
+        <v>1545286</v>
       </c>
       <c r="F101" s="13">
-        <v>1545286</v>
+        <v>798103</v>
       </c>
       <c r="G101" s="13">
-        <v>798103</v>
+        <v>845501</v>
       </c>
       <c r="H101" s="13">
-        <v>845501</v>
+        <v>612257</v>
       </c>
       <c r="I101" s="13">
-        <v>612257</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1353687</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2645,7 +2686,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2655,7 +2696,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2665,7 +2706,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>41</v>
       </c>
@@ -2687,7 +2728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2697,7 +2738,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>24</v>
       </c>
@@ -2705,8 +2746,8 @@
         <v>39</v>
       </c>
       <c r="D107" s="9"/>
-      <c r="E107" s="9">
-        <v>578090</v>
+      <c r="E107" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F107" s="9" t="s">
         <v>26</v>
@@ -2721,7 +2762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>27</v>
       </c>
@@ -2729,23 +2770,23 @@
         <v>39</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11" t="s">
-        <v>26</v>
+      <c r="E108" s="11">
+        <v>19489</v>
       </c>
       <c r="F108" s="11">
-        <v>19489</v>
+        <v>4781</v>
       </c>
       <c r="G108" s="11">
-        <v>4781</v>
+        <v>110</v>
       </c>
       <c r="H108" s="11">
-        <v>110</v>
+        <v>3386</v>
       </c>
       <c r="I108" s="11">
-        <v>3386</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>498821</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>29</v>
       </c>
@@ -2753,23 +2794,23 @@
         <v>39</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9" t="s">
-        <v>26</v>
+      <c r="E109" s="9">
+        <v>731710</v>
       </c>
       <c r="F109" s="9">
-        <v>731710</v>
+        <v>96863</v>
       </c>
       <c r="G109" s="9">
-        <v>96863</v>
+        <v>274169</v>
       </c>
       <c r="H109" s="9">
-        <v>274169</v>
+        <v>392601</v>
       </c>
       <c r="I109" s="9">
-        <v>392601</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-22262</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>30</v>
       </c>
@@ -2778,22 +2819,22 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>-47562</v>
+        <v>235315</v>
       </c>
       <c r="F110" s="11">
-        <v>235315</v>
+        <v>187216</v>
       </c>
       <c r="G110" s="11">
-        <v>187216</v>
+        <v>96535</v>
       </c>
       <c r="H110" s="11">
-        <v>96535</v>
+        <v>129636</v>
       </c>
       <c r="I110" s="11">
-        <v>129636</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1158097</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>31</v>
       </c>
@@ -2817,7 +2858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>32</v>
       </c>
@@ -2826,22 +2867,22 @@
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
-        <v>372311</v>
+        <v>330323</v>
       </c>
       <c r="F112" s="11">
-        <v>330323</v>
+        <v>327477</v>
       </c>
       <c r="G112" s="11">
-        <v>327477</v>
+        <v>165024</v>
       </c>
       <c r="H112" s="11">
-        <v>165024</v>
+        <v>307804</v>
       </c>
       <c r="I112" s="11">
-        <v>307804</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-242062</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>34</v>
       </c>
@@ -2865,29 +2906,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
-        <v>902839</v>
+        <v>1316837</v>
       </c>
       <c r="F114" s="13">
-        <v>1316837</v>
+        <v>616337</v>
       </c>
       <c r="G114" s="13">
-        <v>616337</v>
+        <v>535838</v>
       </c>
       <c r="H114" s="13">
-        <v>535838</v>
+        <v>833427</v>
       </c>
       <c r="I114" s="13">
-        <v>833427</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1392594</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2897,7 +2938,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2907,7 +2948,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2917,7 +2958,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>42</v>
       </c>
@@ -2939,7 +2980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2949,7 +2990,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>24</v>
       </c>
@@ -2957,8 +2998,8 @@
         <v>39</v>
       </c>
       <c r="D120" s="9"/>
-      <c r="E120" s="9">
-        <v>298694</v>
+      <c r="E120" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>26</v>
@@ -2973,7 +3014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>27</v>
       </c>
@@ -2981,23 +3022,23 @@
         <v>39</v>
       </c>
       <c r="D121" s="11"/>
-      <c r="E121" s="11" t="s">
-        <v>26</v>
+      <c r="E121" s="11">
+        <v>38200</v>
       </c>
       <c r="F121" s="11">
-        <v>38200</v>
+        <v>50169</v>
       </c>
       <c r="G121" s="11">
+        <v>50514</v>
+      </c>
+      <c r="H121" s="11">
+        <v>52491</v>
+      </c>
+      <c r="I121" s="11">
         <v>50169</v>
       </c>
-      <c r="H121" s="11">
-        <v>50514</v>
-      </c>
-      <c r="I121" s="11">
-        <v>52491</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>29</v>
       </c>
@@ -3005,23 +3046,23 @@
         <v>39</v>
       </c>
       <c r="D122" s="9"/>
-      <c r="E122" s="9" t="s">
-        <v>26</v>
+      <c r="E122" s="9">
+        <v>257649</v>
       </c>
       <c r="F122" s="9">
-        <v>257649</v>
+        <v>267389</v>
       </c>
       <c r="G122" s="9">
-        <v>267389</v>
+        <v>326061</v>
       </c>
       <c r="H122" s="9">
-        <v>326061</v>
+        <v>251480</v>
       </c>
       <c r="I122" s="9">
-        <v>251480</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>85199</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>30</v>
       </c>
@@ -3030,22 +3071,22 @@
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
-        <v>313420</v>
+        <v>185212</v>
       </c>
       <c r="F123" s="11">
-        <v>185212</v>
+        <v>209840</v>
       </c>
       <c r="G123" s="11">
-        <v>209840</v>
+        <v>230498</v>
       </c>
       <c r="H123" s="11">
-        <v>230498</v>
+        <v>165267</v>
       </c>
       <c r="I123" s="11">
-        <v>165267</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+        <v>100840</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>31</v>
       </c>
@@ -3069,7 +3110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>32</v>
       </c>
@@ -3078,22 +3119,22 @@
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
-        <v>546535</v>
+        <v>754515</v>
       </c>
       <c r="F125" s="11">
-        <v>754515</v>
+        <v>889944</v>
       </c>
       <c r="G125" s="11">
-        <v>889944</v>
+        <v>1119932</v>
       </c>
       <c r="H125" s="11">
-        <v>1119932</v>
+        <v>1036598</v>
       </c>
       <c r="I125" s="11">
-        <v>1036598</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1230720</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>34</v>
       </c>
@@ -3117,29 +3158,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
-        <v>1158649</v>
+        <v>1235576</v>
       </c>
       <c r="F127" s="13">
-        <v>1235576</v>
+        <v>1417342</v>
       </c>
       <c r="G127" s="13">
-        <v>1417342</v>
+        <v>1727005</v>
       </c>
       <c r="H127" s="13">
-        <v>1727005</v>
+        <v>1505836</v>
       </c>
       <c r="I127" s="13">
-        <v>1505836</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1466928</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3149,7 +3190,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3159,7 +3200,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3169,7 +3210,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>43</v>
       </c>
@@ -3191,7 +3232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3201,7 +3242,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>24</v>
       </c>
@@ -3225,7 +3266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>27</v>
       </c>
@@ -3236,20 +3277,20 @@
       <c r="E134" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F134" s="11" t="s">
-        <v>26</v>
+      <c r="F134" s="11">
+        <v>15472</v>
       </c>
       <c r="G134" s="11">
-        <v>15472</v>
+        <v>18960</v>
       </c>
       <c r="H134" s="11">
-        <v>18960</v>
+        <v>19085</v>
       </c>
       <c r="I134" s="11">
-        <v>19085</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6112133</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>29</v>
       </c>
@@ -3260,20 +3301,20 @@
       <c r="E135" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F135" s="9" t="s">
-        <v>26</v>
+      <c r="F135" s="9">
+        <v>2479707</v>
       </c>
       <c r="G135" s="9">
-        <v>2479707</v>
+        <v>2801127</v>
       </c>
       <c r="H135" s="9">
-        <v>2801127</v>
+        <v>3697130</v>
       </c>
       <c r="I135" s="9">
-        <v>3697130</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+        <v>965827</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>30</v>
       </c>
@@ -3282,22 +3323,22 @@
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
-        <v>1208771</v>
+        <v>3148</v>
       </c>
       <c r="F136" s="11">
-        <v>3148</v>
+        <v>480902</v>
       </c>
       <c r="G136" s="11">
-        <v>480902</v>
+        <v>551354</v>
       </c>
       <c r="H136" s="11">
-        <v>551354</v>
+        <v>630784</v>
       </c>
       <c r="I136" s="11">
-        <v>630784</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1349030</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>31</v>
       </c>
@@ -3321,7 +3362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>32</v>
       </c>
@@ -3330,22 +3371,22 @@
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>2427</v>
+        <v>3746</v>
       </c>
       <c r="F138" s="11">
-        <v>3746</v>
+        <v>3441</v>
       </c>
       <c r="G138" s="11">
-        <v>3441</v>
+        <v>4135</v>
       </c>
       <c r="H138" s="11">
-        <v>4135</v>
+        <v>5763</v>
       </c>
       <c r="I138" s="11">
-        <v>5763</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5628</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>34</v>
       </c>
@@ -3369,7 +3410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3379,7 +3420,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3389,7 +3430,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3399,7 +3440,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>48</v>
       </c>
@@ -3421,7 +3462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3431,7 +3472,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>24</v>
       </c>
@@ -3439,8 +3480,8 @@
         <v>44</v>
       </c>
       <c r="D145" s="9"/>
-      <c r="E145" s="9">
-        <v>4120914</v>
+      <c r="E145" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F145" s="9" t="s">
         <v>26</v>
@@ -3455,7 +3496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>27</v>
       </c>
@@ -3463,23 +3504,23 @@
         <v>45</v>
       </c>
       <c r="D146" s="11"/>
-      <c r="E146" s="11" t="s">
-        <v>26</v>
+      <c r="E146" s="11">
+        <v>210298</v>
       </c>
       <c r="F146" s="11">
-        <v>210298</v>
+        <v>85266</v>
       </c>
       <c r="G146" s="11">
-        <v>85266</v>
+        <v>484043</v>
       </c>
       <c r="H146" s="11">
-        <v>484043</v>
+        <v>716787</v>
       </c>
       <c r="I146" s="11">
-        <v>716787</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+        <v>30300</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>29</v>
       </c>
@@ -3487,23 +3528,23 @@
         <v>44</v>
       </c>
       <c r="D147" s="9"/>
-      <c r="E147" s="9" t="s">
-        <v>26</v>
+      <c r="E147" s="9">
+        <v>4036092</v>
       </c>
       <c r="F147" s="9">
-        <v>4036092</v>
+        <v>16064346</v>
       </c>
       <c r="G147" s="9">
-        <v>16064346</v>
+        <v>7123077</v>
       </c>
       <c r="H147" s="9">
-        <v>7123077</v>
+        <v>7830112</v>
       </c>
       <c r="I147" s="9">
-        <v>7830112</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-5599</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>30</v>
       </c>
@@ -3512,22 +3553,22 @@
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
-        <v>-1529838</v>
+        <v>-3422310</v>
       </c>
       <c r="F148" s="11">
-        <v>-3422310</v>
+        <v>2116493</v>
       </c>
       <c r="G148" s="11">
-        <v>2116493</v>
+        <v>1200773</v>
       </c>
       <c r="H148" s="11">
-        <v>1200773</v>
+        <v>1108157</v>
       </c>
       <c r="I148" s="11">
-        <v>1108157</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10822</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>31</v>
       </c>
@@ -3551,7 +3592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>32</v>
       </c>
@@ -3560,22 +3601,22 @@
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
-        <v>4510</v>
+        <v>8725</v>
       </c>
       <c r="F150" s="11">
-        <v>8725</v>
+        <v>6019</v>
       </c>
       <c r="G150" s="11">
-        <v>6019</v>
+        <v>11610</v>
       </c>
       <c r="H150" s="11">
-        <v>11610</v>
+        <v>3714</v>
       </c>
       <c r="I150" s="11">
-        <v>3714</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1419</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>34</v>
       </c>
@@ -3599,7 +3640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3609,7 +3650,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3619,7 +3660,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3629,7 +3670,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>49</v>
       </c>
@@ -3651,7 +3692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3661,7 +3702,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>24</v>
       </c>
@@ -3669,8 +3710,8 @@
         <v>44</v>
       </c>
       <c r="D157" s="9"/>
-      <c r="E157" s="9">
-        <v>3938909</v>
+      <c r="E157" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F157" s="9" t="s">
         <v>26</v>
@@ -3685,7 +3726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>27</v>
       </c>
@@ -3693,23 +3734,23 @@
         <v>45</v>
       </c>
       <c r="D158" s="11"/>
-      <c r="E158" s="11" t="s">
-        <v>26</v>
+      <c r="E158" s="11">
+        <v>218110</v>
       </c>
       <c r="F158" s="11">
-        <v>218110</v>
+        <v>247400</v>
       </c>
       <c r="G158" s="11">
-        <v>247400</v>
+        <v>478261</v>
       </c>
       <c r="H158" s="11">
-        <v>478261</v>
+        <v>-18402174</v>
       </c>
       <c r="I158" s="11">
-        <v>-18402174</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+        <v>30426</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>29</v>
       </c>
@@ -3717,23 +3758,23 @@
         <v>44</v>
       </c>
       <c r="D159" s="9"/>
-      <c r="E159" s="9" t="s">
-        <v>26</v>
+      <c r="E159" s="9">
+        <v>4138865</v>
       </c>
       <c r="F159" s="9">
-        <v>4138865</v>
+        <v>6422424</v>
       </c>
       <c r="G159" s="9">
-        <v>6422424</v>
+        <v>5077956</v>
       </c>
       <c r="H159" s="9">
-        <v>5077956</v>
+        <v>4646826</v>
       </c>
       <c r="I159" s="9">
-        <v>4646826</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-658</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>30</v>
       </c>
@@ -3742,22 +3783,22 @@
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
-        <v>-193824</v>
+        <v>-4511580</v>
       </c>
       <c r="F160" s="11">
-        <v>-4511580</v>
+        <v>1789178</v>
       </c>
       <c r="G160" s="11">
-        <v>1789178</v>
+        <v>856012</v>
       </c>
       <c r="H160" s="11">
-        <v>856012</v>
+        <v>1087258</v>
       </c>
       <c r="I160" s="11">
-        <v>1087258</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11457</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>31</v>
       </c>
@@ -3781,7 +3822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>32</v>
       </c>
@@ -3790,22 +3831,22 @@
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
-        <v>4457</v>
+        <v>4537</v>
       </c>
       <c r="F162" s="11">
-        <v>4537</v>
+        <v>4047</v>
       </c>
       <c r="G162" s="11">
-        <v>4047</v>
+        <v>3004</v>
       </c>
       <c r="H162" s="11">
-        <v>3004</v>
+        <v>4313</v>
       </c>
       <c r="I162" s="11">
-        <v>4313</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>34</v>
       </c>
@@ -3829,7 +3870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3839,7 +3880,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3849,7 +3890,7 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -3859,7 +3900,7 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B167" s="7" t="s">
         <v>50</v>
       </c>
@@ -3881,7 +3922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3891,7 +3932,7 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>24</v>
       </c>
@@ -3899,8 +3940,8 @@
         <v>25</v>
       </c>
       <c r="D169" s="9"/>
-      <c r="E169" s="9">
-        <v>2919328</v>
+      <c r="E169" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F169" s="9" t="s">
         <v>26</v>
@@ -3915,7 +3956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>27</v>
       </c>
@@ -3923,23 +3964,23 @@
         <v>28</v>
       </c>
       <c r="D170" s="11"/>
-      <c r="E170" s="11" t="s">
-        <v>26</v>
+      <c r="E170" s="11">
+        <v>15472</v>
       </c>
       <c r="F170" s="11">
-        <v>15472</v>
+        <v>18960</v>
       </c>
       <c r="G170" s="11">
-        <v>18960</v>
+        <v>19085</v>
       </c>
       <c r="H170" s="11">
-        <v>19085</v>
+        <v>6112133</v>
       </c>
       <c r="I170" s="11">
-        <v>6112133</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+        <v>447937500</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>29</v>
       </c>
@@ -3947,23 +3988,23 @@
         <v>25</v>
       </c>
       <c r="D171" s="9"/>
-      <c r="E171" s="9" t="s">
-        <v>26</v>
+      <c r="E171" s="9">
+        <v>2479707</v>
       </c>
       <c r="F171" s="9">
-        <v>2479707</v>
+        <v>2801146</v>
       </c>
       <c r="G171" s="9">
-        <v>2801146</v>
+        <v>3697130</v>
       </c>
       <c r="H171" s="9">
-        <v>3697130</v>
+        <v>965827</v>
       </c>
       <c r="I171" s="9">
-        <v>965827</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+        <v>843554</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>30</v>
       </c>
@@ -3972,22 +4013,22 @@
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="11">
-        <v>3148</v>
+        <v>480902</v>
       </c>
       <c r="F172" s="11">
-        <v>480902</v>
+        <v>551354</v>
       </c>
       <c r="G172" s="11">
-        <v>551354</v>
+        <v>630784</v>
       </c>
       <c r="H172" s="11">
-        <v>630784</v>
+        <v>1349030</v>
       </c>
       <c r="I172" s="11">
-        <v>1349030</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1014497</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>31</v>
       </c>
@@ -4009,7 +4050,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>32</v>
       </c>
@@ -4018,22 +4059,22 @@
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11">
-        <v>3746</v>
+        <v>3441</v>
       </c>
       <c r="F174" s="11">
-        <v>3441</v>
+        <v>4135</v>
       </c>
       <c r="G174" s="11">
-        <v>4135</v>
+        <v>5763</v>
       </c>
       <c r="H174" s="11">
-        <v>5763</v>
+        <v>5628</v>
       </c>
       <c r="I174" s="11">
-        <v>5628</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>34</v>
       </c>
@@ -4057,7 +4098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4067,7 +4108,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4077,7 +4118,7 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4087,7 +4128,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B179" s="7" t="s">
         <v>51</v>
       </c>
@@ -4109,7 +4150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4119,7 +4160,7 @@
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>52</v>
       </c>
@@ -4141,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>53</v>
       </c>
@@ -4163,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>54</v>
       </c>
@@ -4185,20 +4226,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
       <c r="E184" s="11">
+        <v>23</v>
+      </c>
+      <c r="F184" s="11">
+        <v>-23</v>
+      </c>
+      <c r="G184" s="11">
         <v>0</v>
-      </c>
-      <c r="F184" s="11">
-        <v>23</v>
-      </c>
-      <c r="G184" s="11">
-        <v>-23</v>
       </c>
       <c r="H184" s="11">
         <v>0</v>
@@ -4207,95 +4248,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9">
-        <v>33022</v>
+        <v>26460</v>
       </c>
       <c r="F185" s="9">
-        <v>26460</v>
+        <v>35460</v>
       </c>
       <c r="G185" s="9">
-        <v>35460</v>
+        <v>19593</v>
       </c>
       <c r="H185" s="9">
-        <v>19593</v>
+        <v>46225</v>
       </c>
       <c r="I185" s="9">
-        <v>46225</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-50220</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11">
-        <v>5983</v>
+        <v>3152</v>
       </c>
       <c r="F186" s="11">
-        <v>3152</v>
+        <v>2545</v>
       </c>
       <c r="G186" s="11">
-        <v>2545</v>
+        <v>1905</v>
       </c>
       <c r="H186" s="11">
-        <v>1905</v>
+        <v>5950</v>
       </c>
       <c r="I186" s="11">
-        <v>5950</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7464</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="9">
-        <v>7613</v>
+        <v>6933</v>
       </c>
       <c r="F187" s="9">
-        <v>6933</v>
+        <v>10239</v>
       </c>
       <c r="G187" s="9">
-        <v>10239</v>
+        <v>13351</v>
       </c>
       <c r="H187" s="9">
-        <v>13351</v>
+        <v>13166</v>
       </c>
       <c r="I187" s="9">
-        <v>13166</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12263</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11">
-        <v>118671</v>
+        <v>-131067</v>
       </c>
       <c r="F188" s="11">
-        <v>-131067</v>
+        <v>328101</v>
       </c>
       <c r="G188" s="11">
-        <v>328101</v>
+        <v>41903</v>
       </c>
       <c r="H188" s="11">
-        <v>41903</v>
+        <v>159022</v>
       </c>
       <c r="I188" s="11">
-        <v>159022</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+        <v>285578</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>60</v>
       </c>
@@ -4317,51 +4358,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11">
-        <v>26760</v>
+        <v>278959</v>
       </c>
       <c r="F190" s="11">
-        <v>278959</v>
+        <v>-152304</v>
       </c>
       <c r="G190" s="11">
-        <v>-152304</v>
+        <v>188708</v>
       </c>
       <c r="H190" s="11">
-        <v>188708</v>
+        <v>80099</v>
       </c>
       <c r="I190" s="11">
-        <v>80099</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+        <v>29770</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B191" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
       <c r="E191" s="15">
-        <v>192049</v>
+        <v>184460</v>
       </c>
       <c r="F191" s="15">
-        <v>184460</v>
+        <v>224018</v>
       </c>
       <c r="G191" s="15">
-        <v>224018</v>
+        <v>265460</v>
       </c>
       <c r="H191" s="15">
-        <v>265460</v>
+        <v>304462</v>
       </c>
       <c r="I191" s="15">
-        <v>304462</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+        <v>284855</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4371,7 +4412,7 @@
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4381,7 +4422,7 @@
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4391,7 +4432,7 @@
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B195" s="7" t="s">
         <v>62</v>
       </c>
@@ -4403,7 +4444,7 @@
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -4413,7 +4454,7 @@
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
         <v>63</v>
       </c>
@@ -4427,7 +4468,7 @@
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
         <v>65</v>
       </c>
@@ -4441,7 +4482,7 @@
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>67</v>
       </c>
@@ -4455,7 +4496,7 @@
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
         <v>69</v>
       </c>
@@ -4465,8 +4506,11 @@
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>71</v>
       </c>
@@ -4477,42 +4521,42 @@
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C202" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B203" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B204" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C205" s="9" t="s">
         <v>78</v>
@@ -4521,7 +4565,7 @@
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
         <v>79</v>
       </c>
@@ -4532,29 +4576,29 @@
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
         <v>84</v>
       </c>
@@ -4565,7 +4609,7 @@
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="10" t="s">
         <v>86</v>
       </c>
@@ -4575,6 +4619,17 @@
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
       <c r="F210" s="11"/>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B211" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D211" s="9"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/darou/dejaber/cost/quarterly.xlsx
+++ b/database/industries/darou/dejaber/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dejaber\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92169433-4385-411C-8491-7406BE81E768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16CFDBB-D8B7-4E89-9FA9-E3CBAC14A820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="95">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -745,16 +760,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I211"/>
+  <dimension ref="B1:N211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -763,8 +778,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -775,8 +795,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -787,8 +812,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,8 +827,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -809,8 +844,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -821,8 +861,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -831,8 +876,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -853,8 +903,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -863,98 +928,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>340187</v>
+      </c>
+      <c r="F10" s="9">
+        <v>363511</v>
+      </c>
+      <c r="G10" s="9">
+        <v>336905</v>
+      </c>
+      <c r="H10" s="9">
+        <v>374523</v>
+      </c>
+      <c r="I10" s="9">
+        <v>902839</v>
+      </c>
+      <c r="J10" s="9">
         <v>738747</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>616337</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>535838</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>833427</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>1392594</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>39777</v>
+      </c>
+      <c r="F11" s="11">
+        <v>39101</v>
+      </c>
+      <c r="G11" s="11">
+        <v>42724</v>
+      </c>
+      <c r="H11" s="11">
+        <v>70647</v>
+      </c>
+      <c r="I11" s="11">
+        <v>68964</v>
+      </c>
+      <c r="J11" s="11">
         <v>66912</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>69414</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>131972</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>97535</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>110373</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>241059</v>
+      </c>
+      <c r="F12" s="9">
+        <v>194374</v>
+      </c>
+      <c r="G12" s="9">
+        <v>146848</v>
+      </c>
+      <c r="H12" s="9">
+        <v>187443</v>
+      </c>
+      <c r="I12" s="9">
+        <v>192049</v>
+      </c>
+      <c r="J12" s="9">
         <v>184460</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>224018</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>265460</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>304462</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>284855</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>621023</v>
+      </c>
+      <c r="F13" s="13">
+        <v>596986</v>
+      </c>
+      <c r="G13" s="13">
+        <v>526477</v>
+      </c>
+      <c r="H13" s="13">
+        <v>632613</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1163852</v>
+      </c>
+      <c r="J13" s="13">
         <v>990119</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>909769</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>933270</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>1235424</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>1787822</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -962,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="9">
-        <v>0</v>
+        <v>-750</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -973,54 +1103,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>-1100</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>621023</v>
+      </c>
+      <c r="F15" s="13">
+        <v>596986</v>
+      </c>
+      <c r="G15" s="13">
+        <v>525727</v>
+      </c>
+      <c r="H15" s="13">
+        <v>632613</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1163852</v>
+      </c>
+      <c r="J15" s="13">
         <v>990119</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>908669</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>933270</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>1235424</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>1787822</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>18088</v>
+      </c>
+      <c r="F16" s="9">
+        <v>25003</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-47214</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-57456</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-25909</v>
+      </c>
+      <c r="J16" s="9">
         <v>87558</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>-159491</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-104505</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>304398</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-79456</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1028,10 +1203,10 @@
         <v>-1</v>
       </c>
       <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
         <v>1</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
@@ -1039,32 +1214,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>639110</v>
+      </c>
+      <c r="F18" s="15">
+        <v>621989</v>
+      </c>
+      <c r="G18" s="15">
+        <v>478514</v>
+      </c>
+      <c r="H18" s="15">
+        <v>575157</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1137943</v>
+      </c>
+      <c r="J18" s="15">
         <v>1077676</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>749179</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>828765</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>1539822</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>1708366</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1072,107 +1277,182 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>-1332</v>
+      </c>
+      <c r="H19" s="11">
+        <v>15192</v>
+      </c>
+      <c r="I19" s="11">
+        <v>-1332</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>37320</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>40383</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>45602</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>170313</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-39994</v>
+      </c>
+      <c r="F20" s="9">
+        <v>29991</v>
+      </c>
+      <c r="G20" s="9">
+        <v>23516</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-88452</v>
+      </c>
+      <c r="I20" s="9">
+        <v>75922</v>
+      </c>
+      <c r="J20" s="9">
         <v>-37320</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-40382</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-45602</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-170313</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-212085</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>599116</v>
+      </c>
+      <c r="F21" s="13">
+        <v>651980</v>
+      </c>
+      <c r="G21" s="13">
+        <v>500698</v>
+      </c>
+      <c r="H21" s="13">
+        <v>501897</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1212533</v>
+      </c>
+      <c r="J21" s="13">
         <v>1040356</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>758646</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>823546</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>1415111</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>1666593</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
+        <v>-11853</v>
+      </c>
+      <c r="F22" s="9">
+        <v>-15371</v>
+      </c>
+      <c r="G22" s="9">
+        <v>32009</v>
+      </c>
+      <c r="H22" s="9">
+        <v>-18098</v>
+      </c>
+      <c r="I22" s="9">
+        <v>43333</v>
+      </c>
+      <c r="J22" s="9">
         <v>-23002</v>
       </c>
-      <c r="F22" s="9">
+      <c r="K22" s="9">
         <v>-2233</v>
       </c>
-      <c r="G22" s="9">
+      <c r="L22" s="9">
         <v>-10847</v>
       </c>
-      <c r="H22" s="9">
+      <c r="M22" s="9">
         <v>10846</v>
       </c>
-      <c r="I22" s="9">
+      <c r="N22" s="9">
         <v>-16346</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>587263</v>
+      </c>
+      <c r="F23" s="13">
+        <v>636609</v>
+      </c>
+      <c r="G23" s="13">
+        <v>532707</v>
+      </c>
+      <c r="H23" s="13">
+        <v>483799</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1255866</v>
+      </c>
+      <c r="J23" s="13">
         <v>1017354</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>756413</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>812699</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>1425957</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>1650247</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1181,8 +1461,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1191,8 +1476,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1201,10 +1491,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1223,8 +1518,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1233,196 +1543,321 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="11">
+        <v>31</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="11">
         <v>2468910</v>
       </c>
-      <c r="G30" s="11">
+      <c r="L30" s="11">
         <v>2646030</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>2646740</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>8588</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="9">
+        <v>31</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="9">
         <v>103903</v>
       </c>
-      <c r="G31" s="9">
+      <c r="L31" s="9">
         <v>95458</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>88193</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>260378</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>260336</v>
+      </c>
+      <c r="F32" s="11">
+        <v>398953</v>
+      </c>
+      <c r="G32" s="11">
+        <v>403968</v>
+      </c>
+      <c r="H32" s="11">
+        <v>403491</v>
+      </c>
+      <c r="I32" s="11">
+        <v>501962</v>
+      </c>
+      <c r="J32" s="11">
         <v>99571254</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>385135</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>380590</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>365415</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>122508</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>149446644</v>
+      </c>
+      <c r="F34" s="11">
+        <v>141264290</v>
+      </c>
+      <c r="G34" s="11">
+        <v>177572995</v>
+      </c>
+      <c r="H34" s="11">
+        <v>180684456</v>
+      </c>
+      <c r="I34" s="11">
+        <v>199880109</v>
+      </c>
+      <c r="J34" s="11">
         <v>145906309</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>219246793</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>215238054</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>194324604</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>184171266</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
+        <v>149706980</v>
+      </c>
+      <c r="F36" s="13">
+        <v>141663243</v>
+      </c>
+      <c r="G36" s="13">
+        <v>177976963</v>
+      </c>
+      <c r="H36" s="13">
+        <v>181087947</v>
+      </c>
+      <c r="I36" s="13">
+        <v>200382071</v>
+      </c>
+      <c r="J36" s="13">
         <v>245477563</v>
       </c>
-      <c r="F36" s="13">
+      <c r="K36" s="13">
         <v>222204741</v>
       </c>
-      <c r="G36" s="13">
+      <c r="L36" s="13">
         <v>218360132</v>
       </c>
-      <c r="H36" s="13">
+      <c r="M36" s="13">
         <v>197424952</v>
       </c>
-      <c r="I36" s="13">
+      <c r="N36" s="13">
         <v>184562740</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1431,8 +1866,13 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1441,8 +1881,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1451,10 +1896,15 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1473,8 +1923,23 @@
       <c r="I40" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1483,196 +1948,321 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I42" s="9">
+        <v>177051</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11">
+      <c r="E43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" s="11">
         <v>83605</v>
       </c>
-      <c r="F43" s="11">
+      <c r="K43" s="11">
         <v>196445</v>
       </c>
-      <c r="G43" s="11">
+      <c r="L43" s="11">
         <v>940</v>
       </c>
-      <c r="H43" s="11">
+      <c r="M43" s="11">
         <v>7482</v>
       </c>
-      <c r="I43" s="11">
+      <c r="N43" s="11">
         <v>16386122</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9">
+      <c r="E44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" s="9">
         <v>208664</v>
       </c>
-      <c r="F44" s="9">
+      <c r="K44" s="9">
         <v>6636</v>
       </c>
-      <c r="G44" s="9">
+      <c r="L44" s="9">
         <v>46727</v>
       </c>
-      <c r="H44" s="9">
+      <c r="M44" s="9">
         <v>40615</v>
       </c>
-      <c r="I44" s="9">
+      <c r="N44" s="9">
         <v>33674543</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
+        <v>176486</v>
+      </c>
+      <c r="F45" s="11">
+        <v>112281</v>
+      </c>
+      <c r="G45" s="11">
+        <v>76951</v>
+      </c>
+      <c r="H45" s="11">
+        <v>202942</v>
+      </c>
+      <c r="I45" s="11">
+        <v>222649</v>
+      </c>
+      <c r="J45" s="11">
         <v>-74218</v>
       </c>
-      <c r="F45" s="11">
+      <c r="K45" s="11">
         <v>100092</v>
       </c>
-      <c r="G45" s="11">
+      <c r="L45" s="11">
         <v>97598</v>
       </c>
-      <c r="H45" s="11">
+      <c r="M45" s="11">
         <v>58119</v>
       </c>
-      <c r="I45" s="11">
+      <c r="N45" s="11">
         <v>101057529</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
+        <v>57418239</v>
+      </c>
+      <c r="F47" s="11">
+        <v>99270568</v>
+      </c>
+      <c r="G47" s="11">
+        <v>50675235</v>
+      </c>
+      <c r="H47" s="11">
+        <v>51080806</v>
+      </c>
+      <c r="I47" s="11">
+        <v>128720497</v>
+      </c>
+      <c r="J47" s="11">
         <v>49460361</v>
       </c>
-      <c r="F47" s="11">
+      <c r="K47" s="11">
         <v>76907386</v>
       </c>
-      <c r="G47" s="11">
+      <c r="L47" s="11">
         <v>34023054</v>
       </c>
-      <c r="H47" s="11">
+      <c r="M47" s="11">
         <v>60444945</v>
       </c>
-      <c r="I47" s="11">
+      <c r="N47" s="11">
         <v>33793152</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
+        <v>57594725</v>
+      </c>
+      <c r="F49" s="13">
+        <v>99382849</v>
+      </c>
+      <c r="G49" s="13">
+        <v>50752186</v>
+      </c>
+      <c r="H49" s="13">
+        <v>51283748</v>
+      </c>
+      <c r="I49" s="13">
+        <v>129120197</v>
+      </c>
+      <c r="J49" s="13">
         <v>49678412</v>
       </c>
-      <c r="F49" s="13">
+      <c r="K49" s="13">
         <v>77210559</v>
       </c>
-      <c r="G49" s="13">
+      <c r="L49" s="13">
         <v>34168319</v>
       </c>
-      <c r="H49" s="13">
+      <c r="M49" s="13">
         <v>60551161</v>
       </c>
-      <c r="I49" s="13">
+      <c r="N49" s="13">
         <v>184911346</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1681,8 +2271,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1691,8 +2286,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1701,10 +2301,15 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1723,8 +2328,23 @@
       <c r="I53" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1733,196 +2353,321 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I55" s="9">
+        <v>146764</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11">
+      <c r="E56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J56" s="11">
         <v>89354</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>19325</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>230</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>-184</v>
       </c>
-      <c r="I56" s="11">
+      <c r="N56" s="11">
         <v>16394598</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9">
+      <c r="E57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J57" s="9">
         <v>176790</v>
       </c>
-      <c r="F57" s="9">
+      <c r="K57" s="9">
         <v>15082</v>
       </c>
-      <c r="G57" s="9">
+      <c r="L57" s="9">
         <v>53992</v>
       </c>
-      <c r="H57" s="9">
+      <c r="M57" s="9">
         <v>84488</v>
       </c>
-      <c r="I57" s="9">
+      <c r="N57" s="9">
         <v>33833921</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
+        <v>37869</v>
+      </c>
+      <c r="F58" s="11">
+        <v>107266</v>
+      </c>
+      <c r="G58" s="11">
+        <v>77427</v>
+      </c>
+      <c r="H58" s="11">
+        <v>104471</v>
+      </c>
+      <c r="I58" s="11">
+        <v>245387</v>
+      </c>
+      <c r="J58" s="11">
         <v>-52158</v>
       </c>
-      <c r="F58" s="11">
+      <c r="K58" s="11">
         <v>104638</v>
       </c>
-      <c r="G58" s="11">
+      <c r="L58" s="11">
         <v>112773</v>
       </c>
-      <c r="H58" s="11">
+      <c r="M58" s="11">
         <v>119232</v>
       </c>
-      <c r="I58" s="11">
+      <c r="N58" s="11">
         <v>101080638</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
+        <v>65600593</v>
+      </c>
+      <c r="F60" s="11">
+        <v>62961863</v>
+      </c>
+      <c r="G60" s="11">
+        <v>47563774</v>
+      </c>
+      <c r="H60" s="11">
+        <v>31885153</v>
+      </c>
+      <c r="I60" s="11">
+        <v>83530238</v>
+      </c>
+      <c r="J60" s="11">
         <v>72809277</v>
       </c>
-      <c r="F60" s="11">
+      <c r="K60" s="11">
         <v>80916125</v>
       </c>
-      <c r="G60" s="11">
+      <c r="L60" s="11">
         <v>54936504</v>
       </c>
-      <c r="H60" s="11">
+      <c r="M60" s="11">
         <v>71358565</v>
       </c>
-      <c r="I60" s="11">
+      <c r="N60" s="11">
         <v>-94702332</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
+        <v>65638462</v>
+      </c>
+      <c r="F62" s="13">
+        <v>63069129</v>
+      </c>
+      <c r="G62" s="13">
+        <v>47641201</v>
+      </c>
+      <c r="H62" s="13">
+        <v>31989624</v>
+      </c>
+      <c r="I62" s="13">
+        <v>83922389</v>
+      </c>
+      <c r="J62" s="13">
         <v>73023263</v>
       </c>
-      <c r="F62" s="13">
+      <c r="K62" s="13">
         <v>81055170</v>
       </c>
-      <c r="G62" s="13">
+      <c r="L62" s="13">
         <v>55103499</v>
       </c>
-      <c r="H62" s="13">
+      <c r="M62" s="13">
         <v>71562101</v>
       </c>
-      <c r="I62" s="13">
+      <c r="N62" s="13">
         <v>56606825</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1931,8 +2676,13 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1941,8 +2691,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1951,10 +2706,15 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -1973,8 +2733,23 @@
       <c r="I66" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1983,196 +2758,321 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I68" s="9">
+        <v>102316</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11">
+      <c r="E69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J69" s="11">
         <v>2468910</v>
       </c>
-      <c r="F69" s="11">
+      <c r="K69" s="11">
         <v>2646030</v>
       </c>
-      <c r="G69" s="11">
+      <c r="L69" s="11">
         <v>2646740</v>
       </c>
-      <c r="H69" s="11">
+      <c r="M69" s="11">
         <v>8588</v>
       </c>
-      <c r="I69" s="11">
+      <c r="N69" s="11">
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D70" s="9"/>
-      <c r="E70" s="9">
+      <c r="E70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J70" s="9">
         <v>103903</v>
       </c>
-      <c r="F70" s="9">
+      <c r="K70" s="9">
         <v>95457</v>
       </c>
-      <c r="G70" s="9">
+      <c r="L70" s="9">
         <v>88193</v>
       </c>
-      <c r="H70" s="9">
+      <c r="M70" s="9">
         <v>260378</v>
       </c>
-      <c r="I70" s="9">
+      <c r="N70" s="9">
         <v>101000</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
+        <v>398953</v>
+      </c>
+      <c r="F71" s="11">
+        <v>403968</v>
+      </c>
+      <c r="G71" s="11">
+        <v>403492</v>
+      </c>
+      <c r="H71" s="11">
+        <v>501962</v>
+      </c>
+      <c r="I71" s="11">
+        <v>99571254</v>
+      </c>
+      <c r="J71" s="11">
         <v>385135</v>
       </c>
-      <c r="F71" s="11">
+      <c r="K71" s="11">
         <v>380590</v>
       </c>
-      <c r="G71" s="11">
+      <c r="L71" s="11">
         <v>365415</v>
       </c>
-      <c r="H71" s="11">
+      <c r="M71" s="11">
         <v>122508</v>
       </c>
-      <c r="I71" s="11">
+      <c r="N71" s="11">
         <v>99399</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
+        <v>141264290</v>
+      </c>
+      <c r="F73" s="11">
+        <v>177572995</v>
+      </c>
+      <c r="G73" s="11">
+        <v>180684456</v>
+      </c>
+      <c r="H73" s="11">
+        <v>199880109</v>
+      </c>
+      <c r="I73" s="11">
+        <v>145906309</v>
+      </c>
+      <c r="J73" s="11">
         <v>219246793</v>
       </c>
-      <c r="F73" s="11">
+      <c r="K73" s="11">
         <v>215238054</v>
       </c>
-      <c r="G73" s="11">
+      <c r="L73" s="11">
         <v>194324604</v>
       </c>
-      <c r="H73" s="11">
+      <c r="M73" s="11">
         <v>184171266</v>
       </c>
-      <c r="I73" s="11">
+      <c r="N73" s="11">
         <v>312666750</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
+        <v>141663243</v>
+      </c>
+      <c r="F75" s="13">
+        <v>177976963</v>
+      </c>
+      <c r="G75" s="13">
+        <v>181087948</v>
+      </c>
+      <c r="H75" s="13">
+        <v>200382071</v>
+      </c>
+      <c r="I75" s="13">
+        <v>245579879</v>
+      </c>
+      <c r="J75" s="13">
         <v>222204741</v>
       </c>
-      <c r="F75" s="13">
+      <c r="K75" s="13">
         <v>218360131</v>
       </c>
-      <c r="G75" s="13">
+      <c r="L75" s="13">
         <v>197424952</v>
       </c>
-      <c r="H75" s="13">
+      <c r="M75" s="13">
         <v>184562740</v>
       </c>
-      <c r="I75" s="13">
+      <c r="N75" s="13">
         <v>312867261</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2181,8 +3081,13 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2191,8 +3096,13 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2201,10 +3111,15 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2223,8 +3138,23 @@
       <c r="I79" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2233,198 +3163,323 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F82" s="11">
+        <v>31</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82" s="11">
         <v>38200</v>
       </c>
-      <c r="G82" s="11">
+      <c r="L82" s="11">
         <v>50169</v>
       </c>
-      <c r="H82" s="11">
+      <c r="M82" s="11">
         <v>50514</v>
       </c>
-      <c r="I82" s="11">
+      <c r="N82" s="11">
         <v>52491</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F83" s="9">
+        <v>31</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K83" s="9">
         <v>257649</v>
       </c>
-      <c r="G83" s="9">
+      <c r="L83" s="9">
         <v>267390</v>
       </c>
-      <c r="H83" s="9">
+      <c r="M83" s="9">
         <v>326061</v>
       </c>
-      <c r="I83" s="9">
+      <c r="N83" s="9">
         <v>251480</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
+        <v>213368</v>
+      </c>
+      <c r="F84" s="11">
+        <v>302852</v>
+      </c>
+      <c r="G84" s="11">
+        <v>294149</v>
+      </c>
+      <c r="H84" s="11">
+        <v>267465</v>
+      </c>
+      <c r="I84" s="11">
+        <v>606757</v>
+      </c>
+      <c r="J84" s="11">
         <v>313420</v>
       </c>
-      <c r="F84" s="11">
+      <c r="K84" s="11">
         <v>185212</v>
       </c>
-      <c r="G84" s="11">
+      <c r="L84" s="11">
         <v>209840</v>
       </c>
-      <c r="H84" s="11">
+      <c r="M84" s="11">
         <v>230498</v>
       </c>
-      <c r="I84" s="11">
+      <c r="N84" s="11">
         <v>165267</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
+        <v>290708</v>
+      </c>
+      <c r="F86" s="11">
+        <v>242391</v>
+      </c>
+      <c r="G86" s="11">
+        <v>271853</v>
+      </c>
+      <c r="H86" s="11">
+        <v>371335</v>
+      </c>
+      <c r="I86" s="11">
+        <v>485150</v>
+      </c>
+      <c r="J86" s="11">
         <v>546535</v>
       </c>
-      <c r="F86" s="11">
+      <c r="K86" s="11">
         <v>754515</v>
       </c>
-      <c r="G86" s="11">
+      <c r="L86" s="11">
         <v>889943</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>1119932</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>1036598</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
+        <v>504076</v>
+      </c>
+      <c r="F88" s="13">
+        <v>545243</v>
+      </c>
+      <c r="G88" s="13">
+        <v>566002</v>
+      </c>
+      <c r="H88" s="13">
+        <v>638800</v>
+      </c>
+      <c r="I88" s="13">
+        <v>1091907</v>
+      </c>
+      <c r="J88" s="13">
         <v>859955</v>
       </c>
-      <c r="F88" s="13">
+      <c r="K88" s="13">
         <v>1235576</v>
       </c>
-      <c r="G88" s="13">
+      <c r="L88" s="13">
         <v>1417342</v>
       </c>
-      <c r="H88" s="13">
+      <c r="M88" s="13">
         <v>1727005</v>
       </c>
-      <c r="I88" s="13">
+      <c r="N88" s="13">
         <v>1505836</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2433,8 +3488,13 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2443,8 +3503,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2453,10 +3518,15 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2475,8 +3545,23 @@
       <c r="I92" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2485,198 +3570,323 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I94" s="9">
+        <v>729612</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M94" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N94" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11">
+      <c r="E95" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J95" s="11">
         <v>17582</v>
       </c>
-      <c r="F95" s="11">
+      <c r="K95" s="11">
         <v>16750</v>
       </c>
-      <c r="G95" s="11">
+      <c r="L95" s="11">
         <v>455</v>
       </c>
-      <c r="H95" s="11">
+      <c r="M95" s="11">
         <v>5363</v>
       </c>
-      <c r="I95" s="11">
+      <c r="N95" s="11">
         <v>496499</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D96" s="9"/>
-      <c r="E96" s="9">
+      <c r="E96" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J96" s="9">
         <v>842187</v>
       </c>
-      <c r="F96" s="9">
+      <c r="K96" s="9">
         <v>106603</v>
       </c>
-      <c r="G96" s="9">
+      <c r="L96" s="9">
         <v>332840</v>
       </c>
-      <c r="H96" s="9">
+      <c r="M96" s="9">
         <v>318020</v>
       </c>
-      <c r="I96" s="9">
+      <c r="N96" s="9">
         <v>-188543</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
+        <v>219526</v>
+      </c>
+      <c r="F97" s="11">
+        <v>189047</v>
+      </c>
+      <c r="G97" s="11">
+        <v>184767</v>
+      </c>
+      <c r="H97" s="11">
+        <v>581507</v>
+      </c>
+      <c r="I97" s="11">
+        <v>-340617</v>
+      </c>
+      <c r="J97" s="11">
         <v>253997</v>
       </c>
-      <c r="F97" s="11">
+      <c r="K97" s="11">
         <v>211844</v>
       </c>
-      <c r="G97" s="11">
+      <c r="L97" s="11">
         <v>117193</v>
       </c>
-      <c r="H97" s="11">
+      <c r="M97" s="11">
         <v>64405</v>
       </c>
-      <c r="I97" s="11">
+      <c r="N97" s="11">
         <v>1093670</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L98" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M98" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N98" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
+        <v>171931</v>
+      </c>
+      <c r="F99" s="11">
+        <v>195223</v>
+      </c>
+      <c r="G99" s="11">
+        <v>224936</v>
+      </c>
+      <c r="H99" s="11">
+        <v>246123</v>
+      </c>
+      <c r="I99" s="11">
+        <v>580586</v>
+      </c>
+      <c r="J99" s="11">
         <v>431520</v>
       </c>
-      <c r="F99" s="11">
+      <c r="K99" s="11">
         <v>462906</v>
       </c>
-      <c r="G99" s="11">
+      <c r="L99" s="11">
         <v>395013</v>
       </c>
-      <c r="H99" s="11">
+      <c r="M99" s="11">
         <v>224469</v>
       </c>
-      <c r="I99" s="11">
+      <c r="N99" s="11">
         <v>-47939</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L100" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M100" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N100" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
+        <v>391457</v>
+      </c>
+      <c r="F101" s="13">
+        <v>384270</v>
+      </c>
+      <c r="G101" s="13">
+        <v>409703</v>
+      </c>
+      <c r="H101" s="13">
+        <v>827630</v>
+      </c>
+      <c r="I101" s="13">
+        <v>969581</v>
+      </c>
+      <c r="J101" s="13">
         <v>1545286</v>
       </c>
-      <c r="F101" s="13">
+      <c r="K101" s="13">
         <v>798103</v>
       </c>
-      <c r="G101" s="13">
+      <c r="L101" s="13">
         <v>845501</v>
       </c>
-      <c r="H101" s="13">
+      <c r="M101" s="13">
         <v>612257</v>
       </c>
-      <c r="I101" s="13">
+      <c r="N101" s="13">
         <v>1353687</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2685,8 +3895,13 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2695,8 +3910,13 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2705,10 +3925,15 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -2727,8 +3952,23 @@
       <c r="I105" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2737,198 +3977,323 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I107" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I107" s="9">
+        <v>578090</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N107" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11">
+      <c r="E108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J108" s="11">
         <v>19489</v>
       </c>
-      <c r="F108" s="11">
+      <c r="K108" s="11">
         <v>4781</v>
       </c>
-      <c r="G108" s="11">
+      <c r="L108" s="11">
         <v>110</v>
       </c>
-      <c r="H108" s="11">
+      <c r="M108" s="11">
         <v>3386</v>
       </c>
-      <c r="I108" s="11">
+      <c r="N108" s="11">
         <v>498821</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9">
+      <c r="E109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J109" s="9">
         <v>731710</v>
       </c>
-      <c r="F109" s="9">
+      <c r="K109" s="9">
         <v>96863</v>
       </c>
-      <c r="G109" s="9">
+      <c r="L109" s="9">
         <v>274169</v>
       </c>
-      <c r="H109" s="9">
+      <c r="M109" s="9">
         <v>392601</v>
       </c>
-      <c r="I109" s="9">
+      <c r="N109" s="9">
         <v>-22262</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
+        <v>119939</v>
+      </c>
+      <c r="F110" s="11">
+        <v>197750</v>
+      </c>
+      <c r="G110" s="11">
+        <v>211450</v>
+      </c>
+      <c r="H110" s="11">
+        <v>242215</v>
+      </c>
+      <c r="I110" s="11">
+        <v>-47562</v>
+      </c>
+      <c r="J110" s="11">
         <v>235315</v>
       </c>
-      <c r="F110" s="11">
+      <c r="K110" s="11">
         <v>187216</v>
       </c>
-      <c r="G110" s="11">
+      <c r="L110" s="11">
         <v>96535</v>
       </c>
-      <c r="H110" s="11">
+      <c r="M110" s="11">
         <v>129636</v>
       </c>
-      <c r="I110" s="11">
+      <c r="N110" s="11">
         <v>1158097</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N111" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
+        <v>220248</v>
+      </c>
+      <c r="F112" s="11">
+        <v>165761</v>
+      </c>
+      <c r="G112" s="11">
+        <v>125455</v>
+      </c>
+      <c r="H112" s="11">
+        <v>132308</v>
+      </c>
+      <c r="I112" s="11">
+        <v>372311</v>
+      </c>
+      <c r="J112" s="11">
         <v>330323</v>
       </c>
-      <c r="F112" s="11">
+      <c r="K112" s="11">
         <v>327477</v>
       </c>
-      <c r="G112" s="11">
+      <c r="L112" s="11">
         <v>165024</v>
       </c>
-      <c r="H112" s="11">
+      <c r="M112" s="11">
         <v>307804</v>
       </c>
-      <c r="I112" s="11">
+      <c r="N112" s="11">
         <v>-242062</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M113" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N113" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
+        <v>340187</v>
+      </c>
+      <c r="F114" s="13">
+        <v>363511</v>
+      </c>
+      <c r="G114" s="13">
+        <v>336905</v>
+      </c>
+      <c r="H114" s="13">
+        <v>374523</v>
+      </c>
+      <c r="I114" s="13">
+        <v>902839</v>
+      </c>
+      <c r="J114" s="13">
         <v>1316837</v>
       </c>
-      <c r="F114" s="13">
+      <c r="K114" s="13">
         <v>616337</v>
       </c>
-      <c r="G114" s="13">
+      <c r="L114" s="13">
         <v>535838</v>
       </c>
-      <c r="H114" s="13">
+      <c r="M114" s="13">
         <v>833427</v>
       </c>
-      <c r="I114" s="13">
+      <c r="N114" s="13">
         <v>1392594</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2937,8 +4302,13 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2947,8 +4317,13 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2957,10 +4332,15 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -2979,8 +4359,23 @@
       <c r="I118" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2989,198 +4384,323 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I120" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I120" s="9">
+        <v>298694</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M120" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N120" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D121" s="11"/>
-      <c r="E121" s="11">
+      <c r="E121" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J121" s="11">
         <v>38200</v>
       </c>
-      <c r="F121" s="11">
+      <c r="K121" s="11">
         <v>50169</v>
       </c>
-      <c r="G121" s="11">
+      <c r="L121" s="11">
         <v>50514</v>
       </c>
-      <c r="H121" s="11">
+      <c r="M121" s="11">
         <v>52491</v>
       </c>
-      <c r="I121" s="11">
+      <c r="N121" s="11">
         <v>50169</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D122" s="9"/>
-      <c r="E122" s="9">
+      <c r="E122" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J122" s="9">
         <v>257649</v>
       </c>
-      <c r="F122" s="9">
+      <c r="K122" s="9">
         <v>267389</v>
       </c>
-      <c r="G122" s="9">
+      <c r="L122" s="9">
         <v>326061</v>
       </c>
-      <c r="H122" s="9">
+      <c r="M122" s="9">
         <v>251480</v>
       </c>
-      <c r="I122" s="9">
+      <c r="N122" s="9">
         <v>85199</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
+        <v>302852</v>
+      </c>
+      <c r="F123" s="11">
+        <v>294149</v>
+      </c>
+      <c r="G123" s="11">
+        <v>267466</v>
+      </c>
+      <c r="H123" s="11">
+        <v>606757</v>
+      </c>
+      <c r="I123" s="11">
+        <v>313420</v>
+      </c>
+      <c r="J123" s="11">
         <v>185212</v>
       </c>
-      <c r="F123" s="11">
+      <c r="K123" s="11">
         <v>209840</v>
       </c>
-      <c r="G123" s="11">
+      <c r="L123" s="11">
         <v>230498</v>
       </c>
-      <c r="H123" s="11">
+      <c r="M123" s="11">
         <v>165267</v>
       </c>
-      <c r="I123" s="11">
+      <c r="N123" s="11">
         <v>100840</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K124" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L124" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M124" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N124" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
+        <v>242391</v>
+      </c>
+      <c r="F125" s="11">
+        <v>271853</v>
+      </c>
+      <c r="G125" s="11">
+        <v>371334</v>
+      </c>
+      <c r="H125" s="11">
+        <v>485150</v>
+      </c>
+      <c r="I125" s="11">
+        <v>546535</v>
+      </c>
+      <c r="J125" s="11">
         <v>754515</v>
       </c>
-      <c r="F125" s="11">
+      <c r="K125" s="11">
         <v>889944</v>
       </c>
-      <c r="G125" s="11">
+      <c r="L125" s="11">
         <v>1119932</v>
       </c>
-      <c r="H125" s="11">
+      <c r="M125" s="11">
         <v>1036598</v>
       </c>
-      <c r="I125" s="11">
+      <c r="N125" s="11">
         <v>1230720</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N126" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
+        <v>545243</v>
+      </c>
+      <c r="F127" s="13">
+        <v>566002</v>
+      </c>
+      <c r="G127" s="13">
+        <v>638800</v>
+      </c>
+      <c r="H127" s="13">
+        <v>1091907</v>
+      </c>
+      <c r="I127" s="13">
+        <v>1158649</v>
+      </c>
+      <c r="J127" s="13">
         <v>1235576</v>
       </c>
-      <c r="F127" s="13">
+      <c r="K127" s="13">
         <v>1417342</v>
       </c>
-      <c r="G127" s="13">
+      <c r="L127" s="13">
         <v>1727005</v>
       </c>
-      <c r="H127" s="13">
+      <c r="M127" s="13">
         <v>1505836</v>
       </c>
-      <c r="I127" s="13">
+      <c r="N127" s="13">
         <v>1466928</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3189,8 +4709,13 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3199,8 +4724,13 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3209,10 +4739,15 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3231,8 +4766,23 @@
       <c r="I131" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M131" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N131" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3241,176 +4791,286 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N133" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F134" s="11">
+        <v>31</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K134" s="11">
         <v>15472</v>
       </c>
-      <c r="G134" s="11">
+      <c r="L134" s="11">
         <v>18960</v>
       </c>
-      <c r="H134" s="11">
+      <c r="M134" s="11">
         <v>19085</v>
       </c>
-      <c r="I134" s="11">
+      <c r="N134" s="11">
         <v>6112133</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F135" s="9">
+        <v>31</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K135" s="9">
         <v>2479707</v>
       </c>
-      <c r="G135" s="9">
+      <c r="L135" s="9">
         <v>2801127</v>
       </c>
-      <c r="H135" s="9">
+      <c r="M135" s="9">
         <v>3697130</v>
       </c>
-      <c r="I135" s="9">
+      <c r="N135" s="9">
         <v>965827</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
+        <v>819587</v>
+      </c>
+      <c r="F136" s="11">
+        <v>759117</v>
+      </c>
+      <c r="G136" s="11">
+        <v>728149</v>
+      </c>
+      <c r="H136" s="11">
+        <v>662877</v>
+      </c>
+      <c r="I136" s="11">
+        <v>1208771</v>
+      </c>
+      <c r="J136" s="11">
         <v>3148</v>
       </c>
-      <c r="F136" s="11">
+      <c r="K136" s="11">
         <v>480902</v>
       </c>
-      <c r="G136" s="11">
+      <c r="L136" s="11">
         <v>551354</v>
       </c>
-      <c r="H136" s="11">
+      <c r="M136" s="11">
         <v>630784</v>
       </c>
-      <c r="I136" s="11">
+      <c r="N136" s="11">
         <v>1349030</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N137" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
+        <v>1945</v>
+      </c>
+      <c r="F138" s="11">
+        <v>1716</v>
+      </c>
+      <c r="G138" s="11">
+        <v>1531</v>
+      </c>
+      <c r="H138" s="11">
+        <v>2055</v>
+      </c>
+      <c r="I138" s="11">
+        <v>2427</v>
+      </c>
+      <c r="J138" s="11">
         <v>3746</v>
       </c>
-      <c r="F138" s="11">
+      <c r="K138" s="11">
         <v>3441</v>
       </c>
-      <c r="G138" s="11">
+      <c r="L138" s="11">
         <v>4135</v>
       </c>
-      <c r="H138" s="11">
+      <c r="M138" s="11">
         <v>5763</v>
       </c>
-      <c r="I138" s="11">
+      <c r="N138" s="11">
         <v>5628</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K139" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L139" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M139" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N139" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3419,8 +5079,13 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3429,8 +5094,13 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3439,10 +5109,15 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -3461,8 +5136,23 @@
       <c r="I143" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M143" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N143" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3471,176 +5161,286 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I145" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I145" s="9">
+        <v>4120914</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K145" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L145" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M145" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N145" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D146" s="11"/>
-      <c r="E146" s="11">
+      <c r="E146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J146" s="11">
         <v>210298</v>
       </c>
-      <c r="F146" s="11">
+      <c r="K146" s="11">
         <v>85266</v>
       </c>
-      <c r="G146" s="11">
+      <c r="L146" s="11">
         <v>484043</v>
       </c>
-      <c r="H146" s="11">
+      <c r="M146" s="11">
         <v>716787</v>
       </c>
-      <c r="I146" s="11">
+      <c r="N146" s="11">
         <v>30300</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D147" s="9"/>
-      <c r="E147" s="9">
+      <c r="E147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J147" s="9">
         <v>4036092</v>
       </c>
-      <c r="F147" s="9">
+      <c r="K147" s="9">
         <v>16064346</v>
       </c>
-      <c r="G147" s="9">
+      <c r="L147" s="9">
         <v>7123077</v>
       </c>
-      <c r="H147" s="9">
+      <c r="M147" s="9">
         <v>7830112</v>
       </c>
-      <c r="I147" s="9">
+      <c r="N147" s="9">
         <v>-5599</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
+        <v>1243872</v>
+      </c>
+      <c r="F148" s="11">
+        <v>1683695</v>
+      </c>
+      <c r="G148" s="11">
+        <v>2401099</v>
+      </c>
+      <c r="H148" s="11">
+        <v>2865385</v>
+      </c>
+      <c r="I148" s="11">
+        <v>-1529838</v>
+      </c>
+      <c r="J148" s="11">
         <v>-3422310</v>
       </c>
-      <c r="F148" s="11">
+      <c r="K148" s="11">
         <v>2116493</v>
       </c>
-      <c r="G148" s="11">
+      <c r="L148" s="11">
         <v>1200773</v>
       </c>
-      <c r="H148" s="11">
+      <c r="M148" s="11">
         <v>1108157</v>
       </c>
-      <c r="I148" s="11">
+      <c r="N148" s="11">
         <v>10822</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N149" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
+        <v>2994</v>
+      </c>
+      <c r="F150" s="11">
+        <v>1967</v>
+      </c>
+      <c r="G150" s="11">
+        <v>4439</v>
+      </c>
+      <c r="H150" s="11">
+        <v>4818</v>
+      </c>
+      <c r="I150" s="11">
+        <v>4510</v>
+      </c>
+      <c r="J150" s="11">
         <v>8725</v>
       </c>
-      <c r="F150" s="11">
+      <c r="K150" s="11">
         <v>6019</v>
       </c>
-      <c r="G150" s="11">
+      <c r="L150" s="11">
         <v>11610</v>
       </c>
-      <c r="H150" s="11">
+      <c r="M150" s="11">
         <v>3714</v>
       </c>
-      <c r="I150" s="11">
+      <c r="N150" s="11">
         <v>-1419</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N151" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3649,8 +5449,13 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3659,8 +5464,13 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3669,10 +5479,15 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -3691,8 +5506,23 @@
       <c r="I155" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J155" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M155" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N155" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3701,176 +5531,286 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I157" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I157" s="9">
+        <v>3938909</v>
+      </c>
+      <c r="J157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N157" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D158" s="11"/>
-      <c r="E158" s="11">
+      <c r="E158" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I158" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J158" s="11">
         <v>218110</v>
       </c>
-      <c r="F158" s="11">
+      <c r="K158" s="11">
         <v>247400</v>
       </c>
-      <c r="G158" s="11">
+      <c r="L158" s="11">
         <v>478261</v>
       </c>
-      <c r="H158" s="11">
+      <c r="M158" s="11">
         <v>-18402174</v>
       </c>
-      <c r="I158" s="11">
+      <c r="N158" s="11">
         <v>30426</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D159" s="9"/>
-      <c r="E159" s="9">
+      <c r="E159" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J159" s="9">
         <v>4138865</v>
       </c>
-      <c r="F159" s="9">
+      <c r="K159" s="9">
         <v>6422424</v>
       </c>
-      <c r="G159" s="9">
+      <c r="L159" s="9">
         <v>5077956</v>
       </c>
-      <c r="H159" s="9">
+      <c r="M159" s="9">
         <v>4646826</v>
       </c>
-      <c r="I159" s="9">
+      <c r="N159" s="9">
         <v>-658</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
+        <v>3167208</v>
+      </c>
+      <c r="F160" s="11">
+        <v>1843548</v>
+      </c>
+      <c r="G160" s="11">
+        <v>2730959</v>
+      </c>
+      <c r="H160" s="11">
+        <v>2318490</v>
+      </c>
+      <c r="I160" s="11">
+        <v>-193824</v>
+      </c>
+      <c r="J160" s="11">
         <v>-4511580</v>
       </c>
-      <c r="F160" s="11">
+      <c r="K160" s="11">
         <v>1789178</v>
       </c>
-      <c r="G160" s="11">
+      <c r="L160" s="11">
         <v>856012</v>
       </c>
-      <c r="H160" s="11">
+      <c r="M160" s="11">
         <v>1087258</v>
       </c>
-      <c r="I160" s="11">
+      <c r="N160" s="11">
         <v>11457</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K161" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L161" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M161" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N161" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
+        <v>3357</v>
+      </c>
+      <c r="F162" s="11">
+        <v>2633</v>
+      </c>
+      <c r="G162" s="11">
+        <v>2638</v>
+      </c>
+      <c r="H162" s="11">
+        <v>4150</v>
+      </c>
+      <c r="I162" s="11">
+        <v>4457</v>
+      </c>
+      <c r="J162" s="11">
         <v>4537</v>
       </c>
-      <c r="F162" s="11">
+      <c r="K162" s="11">
         <v>4047</v>
       </c>
-      <c r="G162" s="11">
+      <c r="L162" s="11">
         <v>3004</v>
       </c>
-      <c r="H162" s="11">
+      <c r="M162" s="11">
         <v>4313</v>
       </c>
-      <c r="I162" s="11">
+      <c r="N162" s="11">
         <v>2556</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I163" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J163" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K163" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L163" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M163" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N163" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3879,8 +5819,13 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3889,8 +5834,13 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -3899,10 +5849,15 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
-    </row>
-    <row r="167" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+    </row>
+    <row r="167" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -3921,8 +5876,23 @@
       <c r="I167" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J167" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K167" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L167" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M167" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N167" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3931,174 +5901,284 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I169" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I169" s="9">
+        <v>2919328</v>
+      </c>
+      <c r="J169" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K169" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L169" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M169" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N169" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D170" s="11"/>
-      <c r="E170" s="11">
+      <c r="E170" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I170" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J170" s="11">
         <v>15472</v>
       </c>
-      <c r="F170" s="11">
+      <c r="K170" s="11">
         <v>18960</v>
       </c>
-      <c r="G170" s="11">
+      <c r="L170" s="11">
         <v>19085</v>
       </c>
-      <c r="H170" s="11">
+      <c r="M170" s="11">
         <v>6112133</v>
       </c>
-      <c r="I170" s="11">
+      <c r="N170" s="11">
         <v>447937500</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D171" s="9"/>
-      <c r="E171" s="9">
+      <c r="E171" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I171" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J171" s="9">
         <v>2479707</v>
       </c>
-      <c r="F171" s="9">
+      <c r="K171" s="9">
         <v>2801146</v>
       </c>
-      <c r="G171" s="9">
+      <c r="L171" s="9">
         <v>3697130</v>
       </c>
-      <c r="H171" s="9">
+      <c r="M171" s="9">
         <v>965827</v>
       </c>
-      <c r="I171" s="9">
+      <c r="N171" s="9">
         <v>843554</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C172" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C172" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="D172" s="11"/>
-      <c r="E172" s="11">
+      <c r="E172" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H172" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I172" s="11">
+        <v>3148</v>
+      </c>
+      <c r="J172" s="11">
         <v>480902</v>
       </c>
-      <c r="F172" s="11">
+      <c r="K172" s="11">
         <v>551354</v>
       </c>
-      <c r="G172" s="11">
+      <c r="L172" s="11">
         <v>630784</v>
       </c>
-      <c r="H172" s="11">
+      <c r="M172" s="11">
         <v>1349030</v>
       </c>
-      <c r="I172" s="11">
+      <c r="N172" s="11">
         <v>1014497</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="E173" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I173" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J173" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K173" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L173" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M173" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N173" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D174" s="11"/>
-      <c r="E174" s="11">
+      <c r="E174" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H174" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I174" s="11">
+        <v>3746</v>
+      </c>
+      <c r="J174" s="11">
         <v>3441</v>
       </c>
-      <c r="F174" s="11">
+      <c r="K174" s="11">
         <v>4135</v>
       </c>
-      <c r="G174" s="11">
+      <c r="L174" s="11">
         <v>5763</v>
       </c>
-      <c r="H174" s="11">
+      <c r="M174" s="11">
         <v>5628</v>
       </c>
-      <c r="I174" s="11">
+      <c r="N174" s="11">
         <v>3936</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I175" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J175" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K175" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L175" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M175" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N175" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4107,8 +6187,13 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4117,8 +6202,13 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4127,10 +6217,15 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -4149,8 +6244,23 @@
       <c r="I179" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J179" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K179" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L179" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M179" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N179" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4159,10 +6269,15 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
@@ -4181,10 +6296,25 @@
       <c r="I181" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J181" s="9">
+        <v>0</v>
+      </c>
+      <c r="K181" s="9">
+        <v>0</v>
+      </c>
+      <c r="L181" s="9">
+        <v>0</v>
+      </c>
+      <c r="M181" s="9">
+        <v>0</v>
+      </c>
+      <c r="N181" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -4203,10 +6333,25 @@
       <c r="I182" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J182" s="11">
+        <v>0</v>
+      </c>
+      <c r="K182" s="11">
+        <v>0</v>
+      </c>
+      <c r="L182" s="11">
+        <v>0</v>
+      </c>
+      <c r="M182" s="11">
+        <v>0</v>
+      </c>
+      <c r="N182" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
@@ -4225,18 +6370,33 @@
       <c r="I183" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J183" s="9">
+        <v>0</v>
+      </c>
+      <c r="K183" s="9">
+        <v>0</v>
+      </c>
+      <c r="L183" s="9">
+        <v>0</v>
+      </c>
+      <c r="M183" s="9">
+        <v>0</v>
+      </c>
+      <c r="N183" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
       <c r="E184" s="11">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F184" s="11">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="G184" s="11">
         <v>0</v>
@@ -4247,98 +6407,173 @@
       <c r="I184" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J184" s="11">
+        <v>23</v>
+      </c>
+      <c r="K184" s="11">
+        <v>-23</v>
+      </c>
+      <c r="L184" s="11">
+        <v>0</v>
+      </c>
+      <c r="M184" s="11">
+        <v>0</v>
+      </c>
+      <c r="N184" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9">
+        <v>8495</v>
+      </c>
+      <c r="F185" s="9">
+        <v>22305</v>
+      </c>
+      <c r="G185" s="9">
+        <v>25079</v>
+      </c>
+      <c r="H185" s="9">
+        <v>27324</v>
+      </c>
+      <c r="I185" s="9">
+        <v>33022</v>
+      </c>
+      <c r="J185" s="9">
         <v>26460</v>
       </c>
-      <c r="F185" s="9">
+      <c r="K185" s="9">
         <v>35460</v>
       </c>
-      <c r="G185" s="9">
+      <c r="L185" s="9">
         <v>19593</v>
       </c>
-      <c r="H185" s="9">
+      <c r="M185" s="9">
         <v>46225</v>
       </c>
-      <c r="I185" s="9">
+      <c r="N185" s="9">
         <v>-50220</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11">
+        <v>2641</v>
+      </c>
+      <c r="F186" s="11">
+        <v>2359</v>
+      </c>
+      <c r="G186" s="11">
+        <v>3121</v>
+      </c>
+      <c r="H186" s="11">
+        <v>28</v>
+      </c>
+      <c r="I186" s="11">
+        <v>5983</v>
+      </c>
+      <c r="J186" s="11">
         <v>3152</v>
       </c>
-      <c r="F186" s="11">
+      <c r="K186" s="11">
         <v>2545</v>
       </c>
-      <c r="G186" s="11">
+      <c r="L186" s="11">
         <v>1905</v>
       </c>
-      <c r="H186" s="11">
+      <c r="M186" s="11">
         <v>5950</v>
       </c>
-      <c r="I186" s="11">
+      <c r="N186" s="11">
         <v>7464</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="9">
+        <v>5381</v>
+      </c>
+      <c r="F187" s="9">
+        <v>17531</v>
+      </c>
+      <c r="G187" s="9">
+        <v>6516</v>
+      </c>
+      <c r="H187" s="9">
+        <v>6659</v>
+      </c>
+      <c r="I187" s="9">
+        <v>7613</v>
+      </c>
+      <c r="J187" s="9">
         <v>6933</v>
       </c>
-      <c r="F187" s="9">
+      <c r="K187" s="9">
         <v>10239</v>
       </c>
-      <c r="G187" s="9">
+      <c r="L187" s="9">
         <v>13351</v>
       </c>
-      <c r="H187" s="9">
+      <c r="M187" s="9">
         <v>13166</v>
       </c>
-      <c r="I187" s="9">
+      <c r="N187" s="9">
         <v>12263</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11">
+        <v>59773</v>
+      </c>
+      <c r="F188" s="11">
+        <v>66746</v>
+      </c>
+      <c r="G188" s="11">
+        <v>92276</v>
+      </c>
+      <c r="H188" s="11">
+        <v>93289</v>
+      </c>
+      <c r="I188" s="11">
+        <v>118671</v>
+      </c>
+      <c r="J188" s="11">
         <v>-131067</v>
       </c>
-      <c r="F188" s="11">
+      <c r="K188" s="11">
         <v>328101</v>
       </c>
-      <c r="G188" s="11">
+      <c r="L188" s="11">
         <v>41903</v>
       </c>
-      <c r="H188" s="11">
+      <c r="M188" s="11">
         <v>159022</v>
       </c>
-      <c r="I188" s="11">
+      <c r="N188" s="11">
         <v>285578</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
@@ -4357,52 +6592,97 @@
       <c r="I189" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J189" s="9">
+        <v>0</v>
+      </c>
+      <c r="K189" s="9">
+        <v>0</v>
+      </c>
+      <c r="L189" s="9">
+        <v>0</v>
+      </c>
+      <c r="M189" s="9">
+        <v>0</v>
+      </c>
+      <c r="N189" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11">
+        <v>164769</v>
+      </c>
+      <c r="F190" s="11">
+        <v>85433</v>
+      </c>
+      <c r="G190" s="11">
+        <v>19856</v>
+      </c>
+      <c r="H190" s="11">
+        <v>60143</v>
+      </c>
+      <c r="I190" s="11">
+        <v>26760</v>
+      </c>
+      <c r="J190" s="11">
         <v>278959</v>
       </c>
-      <c r="F190" s="11">
+      <c r="K190" s="11">
         <v>-152304</v>
       </c>
-      <c r="G190" s="11">
+      <c r="L190" s="11">
         <v>188708</v>
       </c>
-      <c r="H190" s="11">
+      <c r="M190" s="11">
         <v>80099</v>
       </c>
-      <c r="I190" s="11">
+      <c r="N190" s="11">
         <v>29770</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
       <c r="E191" s="15">
+        <v>241059</v>
+      </c>
+      <c r="F191" s="15">
+        <v>194374</v>
+      </c>
+      <c r="G191" s="15">
+        <v>146848</v>
+      </c>
+      <c r="H191" s="15">
+        <v>187443</v>
+      </c>
+      <c r="I191" s="15">
+        <v>192049</v>
+      </c>
+      <c r="J191" s="15">
         <v>184460</v>
       </c>
-      <c r="F191" s="15">
+      <c r="K191" s="15">
         <v>224018</v>
       </c>
-      <c r="G191" s="15">
+      <c r="L191" s="15">
         <v>265460</v>
       </c>
-      <c r="H191" s="15">
+      <c r="M191" s="15">
         <v>304462</v>
       </c>
-      <c r="I191" s="15">
+      <c r="N191" s="15">
         <v>284855</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4411,8 +6691,13 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4421,8 +6706,13 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4431,10 +6721,15 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
-    </row>
-    <row r="195" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+    </row>
+    <row r="195" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -4443,8 +6738,13 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -4453,13 +6753,18 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
@@ -4467,13 +6772,18 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
@@ -4481,13 +6791,18 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
@@ -4495,13 +6810,18 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
@@ -4509,123 +6829,128 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D206" s="11"/>
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>

--- a/database/industries/darou/dejaber/cost/quarterly.xlsx
+++ b/database/industries/darou/dejaber/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16CFDBB-D8B7-4E89-9FA9-E3CBAC14A820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B818BFB-804F-4152-9DB0-3CE7DF8FE5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="95">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -764,12 +764,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -784,7 +784,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -801,7 +801,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -833,7 +833,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -867,7 +867,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -882,7 +882,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -919,7 +919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -934,155 +934,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>340187</v>
+        <v>363511</v>
       </c>
       <c r="F10" s="9">
-        <v>363511</v>
+        <v>336905</v>
       </c>
       <c r="G10" s="9">
-        <v>336905</v>
+        <v>374523</v>
       </c>
       <c r="H10" s="9">
-        <v>374523</v>
+        <v>902839</v>
       </c>
       <c r="I10" s="9">
-        <v>902839</v>
+        <v>738747</v>
       </c>
       <c r="J10" s="9">
-        <v>738747</v>
+        <v>616337</v>
       </c>
       <c r="K10" s="9">
-        <v>616337</v>
+        <v>535838</v>
       </c>
       <c r="L10" s="9">
-        <v>535838</v>
+        <v>833427</v>
       </c>
       <c r="M10" s="9">
-        <v>833427</v>
+        <v>1392594</v>
       </c>
       <c r="N10" s="9">
-        <v>1392594</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1662747</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>39777</v>
+        <v>39101</v>
       </c>
       <c r="F11" s="11">
-        <v>39101</v>
+        <v>42724</v>
       </c>
       <c r="G11" s="11">
-        <v>42724</v>
+        <v>70647</v>
       </c>
       <c r="H11" s="11">
-        <v>70647</v>
+        <v>68964</v>
       </c>
       <c r="I11" s="11">
-        <v>68964</v>
+        <v>66912</v>
       </c>
       <c r="J11" s="11">
-        <v>66912</v>
+        <v>69414</v>
       </c>
       <c r="K11" s="11">
-        <v>69414</v>
+        <v>131972</v>
       </c>
       <c r="L11" s="11">
-        <v>131972</v>
+        <v>97535</v>
       </c>
       <c r="M11" s="11">
-        <v>97535</v>
+        <v>110373</v>
       </c>
       <c r="N11" s="11">
-        <v>110373</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>135335</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>241059</v>
+        <v>194374</v>
       </c>
       <c r="F12" s="9">
-        <v>194374</v>
+        <v>146848</v>
       </c>
       <c r="G12" s="9">
-        <v>146848</v>
+        <v>187443</v>
       </c>
       <c r="H12" s="9">
-        <v>187443</v>
+        <v>192049</v>
       </c>
       <c r="I12" s="9">
-        <v>192049</v>
+        <v>184460</v>
       </c>
       <c r="J12" s="9">
-        <v>184460</v>
+        <v>224018</v>
       </c>
       <c r="K12" s="9">
-        <v>224018</v>
+        <v>265460</v>
       </c>
       <c r="L12" s="9">
-        <v>265460</v>
+        <v>304462</v>
       </c>
       <c r="M12" s="9">
-        <v>304462</v>
+        <v>284855</v>
       </c>
       <c r="N12" s="9">
-        <v>284855</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>417843</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>621023</v>
+        <v>596986</v>
       </c>
       <c r="F13" s="13">
-        <v>596986</v>
+        <v>526477</v>
       </c>
       <c r="G13" s="13">
-        <v>526477</v>
+        <v>632613</v>
       </c>
       <c r="H13" s="13">
-        <v>632613</v>
+        <v>1163852</v>
       </c>
       <c r="I13" s="13">
-        <v>1163852</v>
+        <v>990119</v>
       </c>
       <c r="J13" s="13">
-        <v>990119</v>
+        <v>909769</v>
       </c>
       <c r="K13" s="13">
-        <v>909769</v>
+        <v>933270</v>
       </c>
       <c r="L13" s="13">
-        <v>933270</v>
+        <v>1235424</v>
       </c>
       <c r="M13" s="13">
-        <v>1235424</v>
+        <v>1787822</v>
       </c>
       <c r="N13" s="13">
-        <v>1787822</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2215925</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1092,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="9">
+        <v>-750</v>
+      </c>
+      <c r="G14" s="9">
         <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>-750</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="9">
+        <v>-1100</v>
+      </c>
+      <c r="K14" s="9">
         <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>-1100</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
@@ -1116,109 +1116,109 @@
         <v>0</v>
       </c>
       <c r="N14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1746</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>621023</v>
+        <v>596986</v>
       </c>
       <c r="F15" s="13">
-        <v>596986</v>
+        <v>525727</v>
       </c>
       <c r="G15" s="13">
-        <v>525727</v>
+        <v>632613</v>
       </c>
       <c r="H15" s="13">
-        <v>632613</v>
+        <v>1163852</v>
       </c>
       <c r="I15" s="13">
-        <v>1163852</v>
+        <v>990119</v>
       </c>
       <c r="J15" s="13">
-        <v>990119</v>
+        <v>908669</v>
       </c>
       <c r="K15" s="13">
-        <v>908669</v>
+        <v>933270</v>
       </c>
       <c r="L15" s="13">
-        <v>933270</v>
+        <v>1235424</v>
       </c>
       <c r="M15" s="13">
-        <v>1235424</v>
+        <v>1787822</v>
       </c>
       <c r="N15" s="13">
-        <v>1787822</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2214179</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>18088</v>
+        <v>25003</v>
       </c>
       <c r="F16" s="9">
-        <v>25003</v>
+        <v>-47214</v>
       </c>
       <c r="G16" s="9">
-        <v>-47214</v>
+        <v>-57456</v>
       </c>
       <c r="H16" s="9">
-        <v>-57456</v>
+        <v>-25909</v>
       </c>
       <c r="I16" s="9">
-        <v>-25909</v>
+        <v>87558</v>
       </c>
       <c r="J16" s="9">
-        <v>87558</v>
+        <v>-159491</v>
       </c>
       <c r="K16" s="9">
-        <v>-159491</v>
+        <v>-104505</v>
       </c>
       <c r="L16" s="9">
-        <v>-104505</v>
+        <v>304398</v>
       </c>
       <c r="M16" s="9">
-        <v>304398</v>
+        <v>-79456</v>
       </c>
       <c r="N16" s="9">
-        <v>-79456</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31130</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11">
         <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>1</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
       </c>
       <c r="I17" s="11">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1</v>
+      </c>
+      <c r="K17" s="11">
         <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>-1</v>
-      </c>
-      <c r="K17" s="11">
-        <v>1</v>
       </c>
       <c r="L17" s="11">
         <v>0</v>
@@ -1230,44 +1230,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>639110</v>
+        <v>621989</v>
       </c>
       <c r="F18" s="15">
-        <v>621989</v>
+        <v>478514</v>
       </c>
       <c r="G18" s="15">
-        <v>478514</v>
+        <v>575157</v>
       </c>
       <c r="H18" s="15">
-        <v>575157</v>
+        <v>1137943</v>
       </c>
       <c r="I18" s="15">
-        <v>1137943</v>
+        <v>1077676</v>
       </c>
       <c r="J18" s="15">
-        <v>1077676</v>
+        <v>749179</v>
       </c>
       <c r="K18" s="15">
-        <v>749179</v>
+        <v>828765</v>
       </c>
       <c r="L18" s="15">
-        <v>828765</v>
+        <v>1539822</v>
       </c>
       <c r="M18" s="15">
-        <v>1539822</v>
+        <v>1708366</v>
       </c>
       <c r="N18" s="15">
-        <v>1708366</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2245309</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1277,182 +1277,182 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>37376</v>
       </c>
       <c r="G19" s="11">
+        <v>15192</v>
+      </c>
+      <c r="H19" s="11">
         <v>-1332</v>
       </c>
-      <c r="H19" s="11">
-        <v>15192</v>
-      </c>
       <c r="I19" s="11">
-        <v>-1332</v>
+        <v>12530</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>49850</v>
       </c>
       <c r="K19" s="11">
-        <v>37320</v>
+        <v>40383</v>
       </c>
       <c r="L19" s="11">
-        <v>40383</v>
+        <v>45602</v>
       </c>
       <c r="M19" s="11">
-        <v>45602</v>
+        <v>170313</v>
       </c>
       <c r="N19" s="11">
-        <v>170313</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>212085</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-39994</v>
+        <v>29991</v>
       </c>
       <c r="F20" s="9">
-        <v>29991</v>
+        <v>-13860</v>
       </c>
       <c r="G20" s="9">
-        <v>23516</v>
+        <v>-88452</v>
       </c>
       <c r="H20" s="9">
-        <v>-88452</v>
+        <v>75922</v>
       </c>
       <c r="I20" s="9">
-        <v>75922</v>
+        <v>-49850</v>
       </c>
       <c r="J20" s="9">
-        <v>-37320</v>
+        <v>-40383</v>
       </c>
       <c r="K20" s="9">
-        <v>-40382</v>
+        <v>-45602</v>
       </c>
       <c r="L20" s="9">
-        <v>-45602</v>
+        <v>-170313</v>
       </c>
       <c r="M20" s="9">
-        <v>-170313</v>
+        <v>-212085</v>
       </c>
       <c r="N20" s="9">
-        <v>-212085</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-460661</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>599116</v>
+        <v>651980</v>
       </c>
       <c r="F21" s="13">
-        <v>651980</v>
+        <v>500698</v>
       </c>
       <c r="G21" s="13">
-        <v>500698</v>
+        <v>501897</v>
       </c>
       <c r="H21" s="13">
-        <v>501897</v>
+        <v>1212533</v>
       </c>
       <c r="I21" s="13">
-        <v>1212533</v>
+        <v>1040356</v>
       </c>
       <c r="J21" s="13">
-        <v>1040356</v>
+        <v>758646</v>
       </c>
       <c r="K21" s="13">
-        <v>758646</v>
+        <v>823546</v>
       </c>
       <c r="L21" s="13">
-        <v>823546</v>
+        <v>1415111</v>
       </c>
       <c r="M21" s="13">
-        <v>1415111</v>
+        <v>1666593</v>
       </c>
       <c r="N21" s="13">
-        <v>1666593</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1996734</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>-11853</v>
+        <v>-15371</v>
       </c>
       <c r="F22" s="9">
-        <v>-15371</v>
+        <v>32009</v>
       </c>
       <c r="G22" s="9">
-        <v>32009</v>
+        <v>-18098</v>
       </c>
       <c r="H22" s="9">
-        <v>-18098</v>
+        <v>43333</v>
       </c>
       <c r="I22" s="9">
-        <v>43333</v>
+        <v>-23002</v>
       </c>
       <c r="J22" s="9">
-        <v>-23002</v>
+        <v>-2233</v>
       </c>
       <c r="K22" s="9">
-        <v>-2233</v>
+        <v>-10847</v>
       </c>
       <c r="L22" s="9">
-        <v>-10847</v>
+        <v>10846</v>
       </c>
       <c r="M22" s="9">
-        <v>10846</v>
+        <v>-16346</v>
       </c>
       <c r="N22" s="9">
-        <v>-16346</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16347</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>587263</v>
+        <v>636609</v>
       </c>
       <c r="F23" s="13">
-        <v>636609</v>
+        <v>532707</v>
       </c>
       <c r="G23" s="13">
-        <v>532707</v>
+        <v>483799</v>
       </c>
       <c r="H23" s="13">
-        <v>483799</v>
+        <v>1255866</v>
       </c>
       <c r="I23" s="13">
-        <v>1255866</v>
+        <v>1017354</v>
       </c>
       <c r="J23" s="13">
-        <v>1017354</v>
+        <v>756413</v>
       </c>
       <c r="K23" s="13">
-        <v>756413</v>
+        <v>812699</v>
       </c>
       <c r="L23" s="13">
-        <v>812699</v>
+        <v>1425957</v>
       </c>
       <c r="M23" s="13">
-        <v>1425957</v>
+        <v>1650247</v>
       </c>
       <c r="N23" s="13">
-        <v>1650247</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2013081</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1467,7 +1467,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1482,7 +1482,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1497,7 +1497,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1549,7 +1549,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1611,23 +1611,23 @@
       <c r="I30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J30" s="11" t="s">
-        <v>31</v>
+      <c r="J30" s="11">
+        <v>2468910</v>
       </c>
       <c r="K30" s="11">
-        <v>2468910</v>
+        <v>2646030</v>
       </c>
       <c r="L30" s="11">
-        <v>2646030</v>
+        <v>2646740</v>
       </c>
       <c r="M30" s="11">
-        <v>2646740</v>
+        <v>8588</v>
       </c>
       <c r="N30" s="11">
-        <v>8588</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1650,23 +1650,23 @@
       <c r="I31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>31</v>
+      <c r="J31" s="9">
+        <v>103903</v>
       </c>
       <c r="K31" s="9">
-        <v>103903</v>
+        <v>95458</v>
       </c>
       <c r="L31" s="9">
-        <v>95458</v>
+        <v>88193</v>
       </c>
       <c r="M31" s="9">
-        <v>88193</v>
+        <v>260378</v>
       </c>
       <c r="N31" s="9">
-        <v>260378</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
@@ -1675,37 +1675,37 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>260336</v>
+        <v>398953</v>
       </c>
       <c r="F32" s="11">
-        <v>398953</v>
+        <v>403968</v>
       </c>
       <c r="G32" s="11">
-        <v>403968</v>
+        <v>403491</v>
       </c>
       <c r="H32" s="11">
-        <v>403491</v>
+        <v>501962</v>
       </c>
       <c r="I32" s="11">
-        <v>501962</v>
+        <v>99571254</v>
       </c>
       <c r="J32" s="11">
-        <v>99571254</v>
+        <v>385135</v>
       </c>
       <c r="K32" s="11">
-        <v>385135</v>
+        <v>380590</v>
       </c>
       <c r="L32" s="11">
-        <v>380590</v>
+        <v>365415</v>
       </c>
       <c r="M32" s="11">
-        <v>365415</v>
+        <v>122508</v>
       </c>
       <c r="N32" s="11">
-        <v>122508</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>99399</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>36</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>37</v>
       </c>
@@ -1751,37 +1751,37 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>149446644</v>
+        <v>141264290</v>
       </c>
       <c r="F34" s="11">
-        <v>141264290</v>
+        <v>177572995</v>
       </c>
       <c r="G34" s="11">
-        <v>177572995</v>
+        <v>180684456</v>
       </c>
       <c r="H34" s="11">
-        <v>180684456</v>
+        <v>199880109</v>
       </c>
       <c r="I34" s="11">
-        <v>199880109</v>
+        <v>145906309</v>
       </c>
       <c r="J34" s="11">
-        <v>145906309</v>
+        <v>219246793</v>
       </c>
       <c r="K34" s="11">
-        <v>219246793</v>
+        <v>215238054</v>
       </c>
       <c r="L34" s="11">
-        <v>215238054</v>
+        <v>194324604</v>
       </c>
       <c r="M34" s="11">
-        <v>194324604</v>
+        <v>184171266</v>
       </c>
       <c r="N34" s="11">
-        <v>184171266</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>312666750</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>39</v>
       </c>
@@ -1820,44 +1820,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>149706980</v>
+        <v>141663243</v>
       </c>
       <c r="F36" s="13">
-        <v>141663243</v>
+        <v>177976963</v>
       </c>
       <c r="G36" s="13">
-        <v>177976963</v>
+        <v>181087947</v>
       </c>
       <c r="H36" s="13">
-        <v>181087947</v>
+        <v>200382071</v>
       </c>
       <c r="I36" s="13">
-        <v>200382071</v>
+        <v>245477563</v>
       </c>
       <c r="J36" s="13">
-        <v>245477563</v>
+        <v>222204741</v>
       </c>
       <c r="K36" s="13">
-        <v>222204741</v>
+        <v>218360132</v>
       </c>
       <c r="L36" s="13">
-        <v>218360132</v>
+        <v>197424952</v>
       </c>
       <c r="M36" s="13">
-        <v>197424952</v>
+        <v>184562740</v>
       </c>
       <c r="N36" s="13">
-        <v>184562740</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>312867261</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1872,7 +1872,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1887,7 +1887,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1902,7 +1902,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>40</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1954,7 +1954,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>29</v>
       </c>
@@ -1971,12 +1971,12 @@
       <c r="G42" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I42" s="9">
+      <c r="H42" s="9">
         <v>177051</v>
       </c>
+      <c r="I42" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J42" s="9" t="s">
         <v>31</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>32</v>
       </c>
@@ -2013,26 +2013,26 @@
       <c r="H43" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I43" s="11" t="s">
-        <v>31</v>
+      <c r="I43" s="11">
+        <v>83605</v>
       </c>
       <c r="J43" s="11">
-        <v>83605</v>
+        <v>196445</v>
       </c>
       <c r="K43" s="11">
-        <v>196445</v>
+        <v>940</v>
       </c>
       <c r="L43" s="11">
-        <v>940</v>
+        <v>7482</v>
       </c>
       <c r="M43" s="11">
-        <v>7482</v>
+        <v>16386122</v>
       </c>
       <c r="N43" s="11">
-        <v>16386122</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-16365422</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>34</v>
       </c>
@@ -2052,26 +2052,26 @@
       <c r="H44" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I44" s="9" t="s">
-        <v>31</v>
+      <c r="I44" s="9">
+        <v>208664</v>
       </c>
       <c r="J44" s="9">
-        <v>208664</v>
+        <v>6636</v>
       </c>
       <c r="K44" s="9">
-        <v>6636</v>
+        <v>46727</v>
       </c>
       <c r="L44" s="9">
-        <v>46727</v>
+        <v>40615</v>
       </c>
       <c r="M44" s="9">
-        <v>40615</v>
+        <v>33674543</v>
       </c>
       <c r="N44" s="9">
-        <v>33674543</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-33531148</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>35</v>
       </c>
@@ -2080,37 +2080,37 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>176486</v>
+        <v>112281</v>
       </c>
       <c r="F45" s="11">
-        <v>112281</v>
+        <v>76951</v>
       </c>
       <c r="G45" s="11">
-        <v>76951</v>
+        <v>202942</v>
       </c>
       <c r="H45" s="11">
-        <v>202942</v>
+        <v>222649</v>
       </c>
       <c r="I45" s="11">
-        <v>222649</v>
+        <v>-74218</v>
       </c>
       <c r="J45" s="11">
-        <v>-74218</v>
+        <v>100092</v>
       </c>
       <c r="K45" s="11">
-        <v>100092</v>
+        <v>97598</v>
       </c>
       <c r="L45" s="11">
-        <v>97598</v>
+        <v>58119</v>
       </c>
       <c r="M45" s="11">
-        <v>58119</v>
+        <v>101057529</v>
       </c>
       <c r="N45" s="11">
-        <v>101057529</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-100685703</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>36</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>37</v>
       </c>
@@ -2156,37 +2156,37 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>57418239</v>
+        <v>99270568</v>
       </c>
       <c r="F47" s="11">
-        <v>99270568</v>
+        <v>50675235</v>
       </c>
       <c r="G47" s="11">
-        <v>50675235</v>
+        <v>51080806</v>
       </c>
       <c r="H47" s="11">
-        <v>51080806</v>
+        <v>128720497</v>
       </c>
       <c r="I47" s="11">
-        <v>128720497</v>
+        <v>49460361</v>
       </c>
       <c r="J47" s="11">
-        <v>49460361</v>
+        <v>76907386</v>
       </c>
       <c r="K47" s="11">
-        <v>76907386</v>
+        <v>34023054</v>
       </c>
       <c r="L47" s="11">
-        <v>34023054</v>
+        <v>60444945</v>
       </c>
       <c r="M47" s="11">
-        <v>60444945</v>
+        <v>33793152</v>
       </c>
       <c r="N47" s="11">
-        <v>33793152</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>60665796</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>39</v>
       </c>
@@ -2225,44 +2225,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>57594725</v>
+        <v>99382849</v>
       </c>
       <c r="F49" s="13">
-        <v>99382849</v>
+        <v>50752186</v>
       </c>
       <c r="G49" s="13">
-        <v>50752186</v>
+        <v>51283748</v>
       </c>
       <c r="H49" s="13">
-        <v>51283748</v>
+        <v>129120197</v>
       </c>
       <c r="I49" s="13">
-        <v>129120197</v>
+        <v>49678412</v>
       </c>
       <c r="J49" s="13">
-        <v>49678412</v>
+        <v>77210559</v>
       </c>
       <c r="K49" s="13">
-        <v>77210559</v>
+        <v>34168319</v>
       </c>
       <c r="L49" s="13">
-        <v>34168319</v>
+        <v>60551161</v>
       </c>
       <c r="M49" s="13">
-        <v>60551161</v>
+        <v>184911346</v>
       </c>
       <c r="N49" s="13">
-        <v>184911346</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-89916477</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2277,7 +2277,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2292,7 +2292,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2307,7 +2307,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>41</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2359,7 +2359,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>29</v>
       </c>
@@ -2376,12 +2376,12 @@
       <c r="G55" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H55" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="9">
+      <c r="H55" s="9">
         <v>146764</v>
       </c>
+      <c r="I55" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J55" s="9" t="s">
         <v>31</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>32</v>
       </c>
@@ -2418,26 +2418,26 @@
       <c r="H56" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I56" s="11" t="s">
-        <v>31</v>
+      <c r="I56" s="11">
+        <v>89354</v>
       </c>
       <c r="J56" s="11">
-        <v>89354</v>
+        <v>19325</v>
       </c>
       <c r="K56" s="11">
-        <v>19325</v>
+        <v>230</v>
       </c>
       <c r="L56" s="11">
-        <v>230</v>
+        <v>-184</v>
       </c>
       <c r="M56" s="11">
-        <v>-184</v>
+        <v>16394598</v>
       </c>
       <c r="N56" s="11">
-        <v>16394598</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-16282018</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>34</v>
       </c>
@@ -2457,26 +2457,26 @@
       <c r="H57" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>31</v>
+      <c r="I57" s="9">
+        <v>176790</v>
       </c>
       <c r="J57" s="9">
-        <v>176790</v>
+        <v>15082</v>
       </c>
       <c r="K57" s="9">
-        <v>15082</v>
+        <v>53992</v>
       </c>
       <c r="L57" s="9">
-        <v>53992</v>
+        <v>84488</v>
       </c>
       <c r="M57" s="9">
-        <v>84488</v>
+        <v>33833921</v>
       </c>
       <c r="N57" s="9">
-        <v>33833921</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-33759707</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>35</v>
       </c>
@@ -2485,37 +2485,37 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>37869</v>
+        <v>107266</v>
       </c>
       <c r="F58" s="11">
-        <v>107266</v>
+        <v>77427</v>
       </c>
       <c r="G58" s="11">
-        <v>77427</v>
+        <v>104471</v>
       </c>
       <c r="H58" s="11">
-        <v>104471</v>
+        <v>245387</v>
       </c>
       <c r="I58" s="11">
-        <v>245387</v>
+        <v>-52158</v>
       </c>
       <c r="J58" s="11">
-        <v>-52158</v>
+        <v>104638</v>
       </c>
       <c r="K58" s="11">
-        <v>104638</v>
+        <v>112773</v>
       </c>
       <c r="L58" s="11">
-        <v>112773</v>
+        <v>119232</v>
       </c>
       <c r="M58" s="11">
-        <v>119232</v>
+        <v>101080638</v>
       </c>
       <c r="N58" s="11">
-        <v>101080638</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-100809482</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>36</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>37</v>
       </c>
@@ -2561,37 +2561,37 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>65600593</v>
+        <v>62961863</v>
       </c>
       <c r="F60" s="11">
-        <v>62961863</v>
+        <v>47563774</v>
       </c>
       <c r="G60" s="11">
-        <v>47563774</v>
+        <v>31885153</v>
       </c>
       <c r="H60" s="11">
-        <v>31885153</v>
+        <v>83530238</v>
       </c>
       <c r="I60" s="11">
-        <v>83530238</v>
+        <v>72809277</v>
       </c>
       <c r="J60" s="11">
-        <v>72809277</v>
+        <v>80916125</v>
       </c>
       <c r="K60" s="11">
-        <v>80916125</v>
+        <v>54936504</v>
       </c>
       <c r="L60" s="11">
-        <v>54936504</v>
+        <v>71358565</v>
       </c>
       <c r="M60" s="11">
-        <v>71358565</v>
+        <v>-94702332</v>
       </c>
       <c r="N60" s="11">
-        <v>-94702332</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>218989745</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>39</v>
       </c>
@@ -2630,44 +2630,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>65638462</v>
+        <v>63069129</v>
       </c>
       <c r="F62" s="13">
-        <v>63069129</v>
+        <v>47641201</v>
       </c>
       <c r="G62" s="13">
-        <v>47641201</v>
+        <v>31989624</v>
       </c>
       <c r="H62" s="13">
-        <v>31989624</v>
+        <v>83922389</v>
       </c>
       <c r="I62" s="13">
-        <v>83922389</v>
+        <v>73023263</v>
       </c>
       <c r="J62" s="13">
-        <v>73023263</v>
+        <v>81055170</v>
       </c>
       <c r="K62" s="13">
-        <v>81055170</v>
+        <v>55103499</v>
       </c>
       <c r="L62" s="13">
-        <v>55103499</v>
+        <v>71562101</v>
       </c>
       <c r="M62" s="13">
-        <v>71562101</v>
+        <v>56606825</v>
       </c>
       <c r="N62" s="13">
-        <v>56606825</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>68138538</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2682,7 +2682,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2697,7 +2697,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2712,7 +2712,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>42</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2764,7 +2764,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>29</v>
       </c>
@@ -2781,12 +2781,12 @@
       <c r="G68" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H68" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I68" s="9">
+      <c r="H68" s="9">
         <v>102316</v>
       </c>
+      <c r="I68" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J68" s="9" t="s">
         <v>31</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>32</v>
       </c>
@@ -2823,26 +2823,26 @@
       <c r="H69" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I69" s="11" t="s">
-        <v>31</v>
+      <c r="I69" s="11">
+        <v>2468910</v>
       </c>
       <c r="J69" s="11">
-        <v>2468910</v>
+        <v>2646030</v>
       </c>
       <c r="K69" s="11">
-        <v>2646030</v>
+        <v>2646740</v>
       </c>
       <c r="L69" s="11">
-        <v>2646740</v>
+        <v>8588</v>
       </c>
       <c r="M69" s="11">
-        <v>8588</v>
+        <v>112</v>
       </c>
       <c r="N69" s="11">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2562526</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>34</v>
       </c>
@@ -2862,26 +2862,26 @@
       <c r="H70" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I70" s="9" t="s">
-        <v>31</v>
+      <c r="I70" s="9">
+        <v>103903</v>
       </c>
       <c r="J70" s="9">
-        <v>103903</v>
+        <v>95457</v>
       </c>
       <c r="K70" s="9">
-        <v>95457</v>
+        <v>88193</v>
       </c>
       <c r="L70" s="9">
-        <v>88193</v>
+        <v>260378</v>
       </c>
       <c r="M70" s="9">
-        <v>260378</v>
+        <v>101000</v>
       </c>
       <c r="N70" s="9">
-        <v>101000</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>113501</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>35</v>
       </c>
@@ -2890,37 +2890,37 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>398953</v>
+        <v>403968</v>
       </c>
       <c r="F71" s="11">
-        <v>403968</v>
+        <v>403492</v>
       </c>
       <c r="G71" s="11">
-        <v>403492</v>
+        <v>501962</v>
       </c>
       <c r="H71" s="11">
-        <v>501962</v>
+        <v>99571254</v>
       </c>
       <c r="I71" s="11">
-        <v>99571254</v>
+        <v>385135</v>
       </c>
       <c r="J71" s="11">
-        <v>385135</v>
+        <v>380590</v>
       </c>
       <c r="K71" s="11">
-        <v>380590</v>
+        <v>365415</v>
       </c>
       <c r="L71" s="11">
-        <v>365415</v>
+        <v>122508</v>
       </c>
       <c r="M71" s="11">
-        <v>122508</v>
+        <v>99399</v>
       </c>
       <c r="N71" s="11">
-        <v>99399</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>404972</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>36</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>37</v>
       </c>
@@ -2966,37 +2966,37 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>141264290</v>
+        <v>177572995</v>
       </c>
       <c r="F73" s="11">
-        <v>177572995</v>
+        <v>180684456</v>
       </c>
       <c r="G73" s="11">
-        <v>180684456</v>
+        <v>199880109</v>
       </c>
       <c r="H73" s="11">
-        <v>199880109</v>
+        <v>145906309</v>
       </c>
       <c r="I73" s="11">
-        <v>145906309</v>
+        <v>219246793</v>
       </c>
       <c r="J73" s="11">
-        <v>219246793</v>
+        <v>215238054</v>
       </c>
       <c r="K73" s="11">
-        <v>215238054</v>
+        <v>194324604</v>
       </c>
       <c r="L73" s="11">
-        <v>194324604</v>
+        <v>184171266</v>
       </c>
       <c r="M73" s="11">
-        <v>184171266</v>
+        <v>312666750</v>
       </c>
       <c r="N73" s="11">
-        <v>312666750</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>153582519</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>39</v>
       </c>
@@ -3035,44 +3035,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>141663243</v>
+        <v>177976963</v>
       </c>
       <c r="F75" s="13">
-        <v>177976963</v>
+        <v>181087948</v>
       </c>
       <c r="G75" s="13">
-        <v>181087948</v>
+        <v>200382071</v>
       </c>
       <c r="H75" s="13">
-        <v>200382071</v>
+        <v>245579879</v>
       </c>
       <c r="I75" s="13">
-        <v>245579879</v>
+        <v>222204741</v>
       </c>
       <c r="J75" s="13">
-        <v>222204741</v>
+        <v>218360131</v>
       </c>
       <c r="K75" s="13">
-        <v>218360131</v>
+        <v>197424952</v>
       </c>
       <c r="L75" s="13">
-        <v>197424952</v>
+        <v>184562740</v>
       </c>
       <c r="M75" s="13">
-        <v>184562740</v>
+        <v>312867261</v>
       </c>
       <c r="N75" s="13">
-        <v>312867261</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>156663518</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3087,7 +3087,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3102,7 +3102,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3117,7 +3117,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>43</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3169,7 +3169,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>29</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>32</v>
       </c>
@@ -3231,23 +3231,23 @@
       <c r="I82" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J82" s="11" t="s">
-        <v>31</v>
+      <c r="J82" s="11">
+        <v>38200</v>
       </c>
       <c r="K82" s="11">
-        <v>38200</v>
+        <v>50169</v>
       </c>
       <c r="L82" s="11">
+        <v>50514</v>
+      </c>
+      <c r="M82" s="11">
+        <v>52491</v>
+      </c>
+      <c r="N82" s="11">
         <v>50169</v>
       </c>
-      <c r="M82" s="11">
-        <v>50514</v>
-      </c>
-      <c r="N82" s="11">
-        <v>52491</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>34</v>
       </c>
@@ -3270,23 +3270,23 @@
       <c r="I83" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J83" s="9" t="s">
-        <v>31</v>
+      <c r="J83" s="9">
+        <v>257649</v>
       </c>
       <c r="K83" s="9">
-        <v>257649</v>
+        <v>267390</v>
       </c>
       <c r="L83" s="9">
-        <v>267390</v>
+        <v>326061</v>
       </c>
       <c r="M83" s="9">
-        <v>326061</v>
+        <v>251480</v>
       </c>
       <c r="N83" s="9">
-        <v>251480</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>85199</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>35</v>
       </c>
@@ -3295,37 +3295,37 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>213368</v>
+        <v>302852</v>
       </c>
       <c r="F84" s="11">
-        <v>302852</v>
+        <v>294149</v>
       </c>
       <c r="G84" s="11">
-        <v>294149</v>
+        <v>267465</v>
       </c>
       <c r="H84" s="11">
-        <v>267465</v>
+        <v>606757</v>
       </c>
       <c r="I84" s="11">
-        <v>606757</v>
+        <v>313420</v>
       </c>
       <c r="J84" s="11">
-        <v>313420</v>
+        <v>185212</v>
       </c>
       <c r="K84" s="11">
-        <v>185212</v>
+        <v>209840</v>
       </c>
       <c r="L84" s="11">
-        <v>209840</v>
+        <v>230498</v>
       </c>
       <c r="M84" s="11">
-        <v>230498</v>
+        <v>165267</v>
       </c>
       <c r="N84" s="11">
-        <v>165267</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>100840</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>36</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>37</v>
       </c>
@@ -3373,37 +3373,37 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>290708</v>
+        <v>242391</v>
       </c>
       <c r="F86" s="11">
-        <v>242391</v>
+        <v>271853</v>
       </c>
       <c r="G86" s="11">
-        <v>271853</v>
+        <v>371335</v>
       </c>
       <c r="H86" s="11">
-        <v>371335</v>
+        <v>485150</v>
       </c>
       <c r="I86" s="11">
-        <v>485150</v>
+        <v>546535</v>
       </c>
       <c r="J86" s="11">
-        <v>546535</v>
+        <v>754515</v>
       </c>
       <c r="K86" s="11">
-        <v>754515</v>
+        <v>889943</v>
       </c>
       <c r="L86" s="11">
-        <v>889943</v>
+        <v>1119932</v>
       </c>
       <c r="M86" s="11">
-        <v>1119932</v>
+        <v>1036598</v>
       </c>
       <c r="N86" s="11">
-        <v>1036598</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1230720</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>39</v>
       </c>
@@ -3442,44 +3442,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>504076</v>
+        <v>545243</v>
       </c>
       <c r="F88" s="13">
-        <v>545243</v>
+        <v>566002</v>
       </c>
       <c r="G88" s="13">
-        <v>566002</v>
+        <v>638800</v>
       </c>
       <c r="H88" s="13">
-        <v>638800</v>
+        <v>1091907</v>
       </c>
       <c r="I88" s="13">
-        <v>1091907</v>
+        <v>859955</v>
       </c>
       <c r="J88" s="13">
-        <v>859955</v>
+        <v>1235576</v>
       </c>
       <c r="K88" s="13">
-        <v>1235576</v>
+        <v>1417342</v>
       </c>
       <c r="L88" s="13">
-        <v>1417342</v>
+        <v>1727005</v>
       </c>
       <c r="M88" s="13">
-        <v>1727005</v>
+        <v>1505836</v>
       </c>
       <c r="N88" s="13">
-        <v>1505836</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1466928</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3494,7 +3494,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3509,7 +3509,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3524,7 +3524,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>45</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3576,7 +3576,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>29</v>
       </c>
@@ -3593,12 +3593,12 @@
       <c r="G94" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H94" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I94" s="9">
+      <c r="H94" s="9">
         <v>729612</v>
       </c>
+      <c r="I94" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J94" s="9" t="s">
         <v>31</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>32</v>
       </c>
@@ -3635,26 +3635,26 @@
       <c r="H95" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I95" s="11" t="s">
-        <v>31</v>
+      <c r="I95" s="11">
+        <v>17582</v>
       </c>
       <c r="J95" s="11">
-        <v>17582</v>
+        <v>16750</v>
       </c>
       <c r="K95" s="11">
-        <v>16750</v>
+        <v>455</v>
       </c>
       <c r="L95" s="11">
-        <v>455</v>
+        <v>5363</v>
       </c>
       <c r="M95" s="11">
-        <v>5363</v>
+        <v>496499</v>
       </c>
       <c r="N95" s="11">
-        <v>496499</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-444917</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>34</v>
       </c>
@@ -3674,26 +3674,26 @@
       <c r="H96" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I96" s="9" t="s">
-        <v>31</v>
+      <c r="I96" s="9">
+        <v>842187</v>
       </c>
       <c r="J96" s="9">
-        <v>842187</v>
+        <v>106603</v>
       </c>
       <c r="K96" s="9">
-        <v>106603</v>
+        <v>332840</v>
       </c>
       <c r="L96" s="9">
-        <v>332840</v>
+        <v>318020</v>
       </c>
       <c r="M96" s="9">
-        <v>318020</v>
+        <v>-188543</v>
       </c>
       <c r="N96" s="9">
-        <v>-188543</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1140277</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>35</v>
       </c>
@@ -3702,37 +3702,37 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>219526</v>
+        <v>189047</v>
       </c>
       <c r="F97" s="11">
-        <v>189047</v>
+        <v>184767</v>
       </c>
       <c r="G97" s="11">
-        <v>184767</v>
+        <v>581507</v>
       </c>
       <c r="H97" s="11">
-        <v>581507</v>
+        <v>-340617</v>
       </c>
       <c r="I97" s="11">
-        <v>-340617</v>
+        <v>253997</v>
       </c>
       <c r="J97" s="11">
-        <v>253997</v>
+        <v>211844</v>
       </c>
       <c r="K97" s="11">
-        <v>211844</v>
+        <v>117193</v>
       </c>
       <c r="L97" s="11">
-        <v>117193</v>
+        <v>64405</v>
       </c>
       <c r="M97" s="11">
-        <v>64405</v>
+        <v>1093670</v>
       </c>
       <c r="N97" s="11">
-        <v>1093670</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>364258</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>36</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>37</v>
       </c>
@@ -3780,37 +3780,37 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>171931</v>
+        <v>195223</v>
       </c>
       <c r="F99" s="11">
-        <v>195223</v>
+        <v>224936</v>
       </c>
       <c r="G99" s="11">
-        <v>224936</v>
+        <v>246123</v>
       </c>
       <c r="H99" s="11">
-        <v>246123</v>
+        <v>580586</v>
       </c>
       <c r="I99" s="11">
-        <v>580586</v>
+        <v>431520</v>
       </c>
       <c r="J99" s="11">
-        <v>431520</v>
+        <v>462906</v>
       </c>
       <c r="K99" s="11">
-        <v>462906</v>
+        <v>395013</v>
       </c>
       <c r="L99" s="11">
-        <v>395013</v>
+        <v>224469</v>
       </c>
       <c r="M99" s="11">
-        <v>224469</v>
+        <v>-47939</v>
       </c>
       <c r="N99" s="11">
-        <v>-47939</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>772367</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>39</v>
       </c>
@@ -3849,44 +3849,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
-        <v>391457</v>
+        <v>384270</v>
       </c>
       <c r="F101" s="13">
-        <v>384270</v>
+        <v>409703</v>
       </c>
       <c r="G101" s="13">
-        <v>409703</v>
+        <v>827630</v>
       </c>
       <c r="H101" s="13">
-        <v>827630</v>
+        <v>969581</v>
       </c>
       <c r="I101" s="13">
-        <v>969581</v>
+        <v>1545286</v>
       </c>
       <c r="J101" s="13">
-        <v>1545286</v>
+        <v>798103</v>
       </c>
       <c r="K101" s="13">
-        <v>798103</v>
+        <v>845501</v>
       </c>
       <c r="L101" s="13">
-        <v>845501</v>
+        <v>612257</v>
       </c>
       <c r="M101" s="13">
-        <v>612257</v>
+        <v>1353687</v>
       </c>
       <c r="N101" s="13">
-        <v>1353687</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1831985</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3901,7 +3901,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3916,7 +3916,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3931,7 +3931,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>46</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3983,7 +3983,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>29</v>
       </c>
@@ -4000,12 +4000,12 @@
       <c r="G107" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H107" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I107" s="9">
+      <c r="H107" s="9">
         <v>578090</v>
       </c>
+      <c r="I107" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J107" s="9" t="s">
         <v>31</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>32</v>
       </c>
@@ -4042,26 +4042,26 @@
       <c r="H108" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I108" s="11" t="s">
-        <v>31</v>
+      <c r="I108" s="11">
+        <v>19489</v>
       </c>
       <c r="J108" s="11">
-        <v>19489</v>
+        <v>4781</v>
       </c>
       <c r="K108" s="11">
-        <v>4781</v>
+        <v>110</v>
       </c>
       <c r="L108" s="11">
-        <v>110</v>
+        <v>3386</v>
       </c>
       <c r="M108" s="11">
-        <v>3386</v>
+        <v>498821</v>
       </c>
       <c r="N108" s="11">
-        <v>498821</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-440501</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>34</v>
       </c>
@@ -4081,26 +4081,26 @@
       <c r="H109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I109" s="9" t="s">
-        <v>31</v>
+      <c r="I109" s="9">
+        <v>731710</v>
       </c>
       <c r="J109" s="9">
-        <v>731710</v>
+        <v>96863</v>
       </c>
       <c r="K109" s="9">
-        <v>96863</v>
+        <v>274169</v>
       </c>
       <c r="L109" s="9">
-        <v>274169</v>
+        <v>392601</v>
       </c>
       <c r="M109" s="9">
-        <v>392601</v>
+        <v>-22262</v>
       </c>
       <c r="N109" s="9">
-        <v>-22262</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1057230</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>35</v>
       </c>
@@ -4109,37 +4109,37 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>119939</v>
+        <v>197750</v>
       </c>
       <c r="F110" s="11">
-        <v>197750</v>
+        <v>211450</v>
       </c>
       <c r="G110" s="11">
-        <v>211450</v>
+        <v>242215</v>
       </c>
       <c r="H110" s="11">
-        <v>242215</v>
+        <v>-47562</v>
       </c>
       <c r="I110" s="11">
-        <v>-47562</v>
+        <v>235315</v>
       </c>
       <c r="J110" s="11">
-        <v>235315</v>
+        <v>187216</v>
       </c>
       <c r="K110" s="11">
-        <v>187216</v>
+        <v>96535</v>
       </c>
       <c r="L110" s="11">
-        <v>96535</v>
+        <v>129636</v>
       </c>
       <c r="M110" s="11">
-        <v>129636</v>
+        <v>1158097</v>
       </c>
       <c r="N110" s="11">
-        <v>1158097</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-22098</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>36</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>37</v>
       </c>
@@ -4187,37 +4187,37 @@
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
-        <v>220248</v>
+        <v>165761</v>
       </c>
       <c r="F112" s="11">
-        <v>165761</v>
+        <v>125455</v>
       </c>
       <c r="G112" s="11">
-        <v>125455</v>
+        <v>132308</v>
       </c>
       <c r="H112" s="11">
-        <v>132308</v>
+        <v>372311</v>
       </c>
       <c r="I112" s="11">
-        <v>372311</v>
+        <v>330323</v>
       </c>
       <c r="J112" s="11">
-        <v>330323</v>
+        <v>327477</v>
       </c>
       <c r="K112" s="11">
-        <v>327477</v>
+        <v>165024</v>
       </c>
       <c r="L112" s="11">
-        <v>165024</v>
+        <v>307804</v>
       </c>
       <c r="M112" s="11">
-        <v>307804</v>
+        <v>-242062</v>
       </c>
       <c r="N112" s="11">
-        <v>-242062</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1068116</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>39</v>
       </c>
@@ -4256,44 +4256,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
-        <v>340187</v>
+        <v>363511</v>
       </c>
       <c r="F114" s="13">
-        <v>363511</v>
+        <v>336905</v>
       </c>
       <c r="G114" s="13">
-        <v>336905</v>
+        <v>374523</v>
       </c>
       <c r="H114" s="13">
-        <v>374523</v>
+        <v>902839</v>
       </c>
       <c r="I114" s="13">
-        <v>902839</v>
+        <v>1316837</v>
       </c>
       <c r="J114" s="13">
-        <v>1316837</v>
+        <v>616337</v>
       </c>
       <c r="K114" s="13">
-        <v>616337</v>
+        <v>535838</v>
       </c>
       <c r="L114" s="13">
-        <v>535838</v>
+        <v>833427</v>
       </c>
       <c r="M114" s="13">
-        <v>833427</v>
+        <v>1392594</v>
       </c>
       <c r="N114" s="13">
-        <v>1392594</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1662747</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4308,7 +4308,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4323,7 +4323,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4338,7 +4338,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>47</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4390,7 +4390,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>29</v>
       </c>
@@ -4407,12 +4407,12 @@
       <c r="G120" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H120" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I120" s="9">
+      <c r="H120" s="9">
         <v>298694</v>
       </c>
+      <c r="I120" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J120" s="9" t="s">
         <v>31</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>32</v>
       </c>
@@ -4449,26 +4449,26 @@
       <c r="H121" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I121" s="11" t="s">
-        <v>31</v>
+      <c r="I121" s="11">
+        <v>38200</v>
       </c>
       <c r="J121" s="11">
-        <v>38200</v>
+        <v>50169</v>
       </c>
       <c r="K121" s="11">
+        <v>50514</v>
+      </c>
+      <c r="L121" s="11">
+        <v>52491</v>
+      </c>
+      <c r="M121" s="11">
         <v>50169</v>
       </c>
-      <c r="L121" s="11">
-        <v>50514</v>
-      </c>
-      <c r="M121" s="11">
-        <v>52491</v>
-      </c>
       <c r="N121" s="11">
-        <v>50169</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45753</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>34</v>
       </c>
@@ -4488,26 +4488,26 @@
       <c r="H122" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I122" s="9" t="s">
-        <v>31</v>
+      <c r="I122" s="9">
+        <v>257649</v>
       </c>
       <c r="J122" s="9">
-        <v>257649</v>
+        <v>267389</v>
       </c>
       <c r="K122" s="9">
-        <v>267389</v>
+        <v>326061</v>
       </c>
       <c r="L122" s="9">
-        <v>326061</v>
+        <v>251480</v>
       </c>
       <c r="M122" s="9">
-        <v>251480</v>
+        <v>85199</v>
       </c>
       <c r="N122" s="9">
-        <v>85199</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+        <v>168246</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>35</v>
       </c>
@@ -4516,37 +4516,37 @@
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
-        <v>302852</v>
+        <v>294149</v>
       </c>
       <c r="F123" s="11">
-        <v>294149</v>
+        <v>267466</v>
       </c>
       <c r="G123" s="11">
-        <v>267466</v>
+        <v>606757</v>
       </c>
       <c r="H123" s="11">
-        <v>606757</v>
+        <v>313420</v>
       </c>
       <c r="I123" s="11">
-        <v>313420</v>
+        <v>185212</v>
       </c>
       <c r="J123" s="11">
-        <v>185212</v>
+        <v>209840</v>
       </c>
       <c r="K123" s="11">
-        <v>209840</v>
+        <v>230498</v>
       </c>
       <c r="L123" s="11">
-        <v>230498</v>
+        <v>165267</v>
       </c>
       <c r="M123" s="11">
-        <v>165267</v>
+        <v>100840</v>
       </c>
       <c r="N123" s="11">
-        <v>100840</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+        <v>487196</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>36</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>37</v>
       </c>
@@ -4594,37 +4594,37 @@
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
-        <v>242391</v>
+        <v>271853</v>
       </c>
       <c r="F125" s="11">
-        <v>271853</v>
+        <v>371334</v>
       </c>
       <c r="G125" s="11">
-        <v>371334</v>
+        <v>485150</v>
       </c>
       <c r="H125" s="11">
-        <v>485150</v>
+        <v>546535</v>
       </c>
       <c r="I125" s="11">
-        <v>546535</v>
+        <v>754515</v>
       </c>
       <c r="J125" s="11">
-        <v>754515</v>
+        <v>889944</v>
       </c>
       <c r="K125" s="11">
-        <v>889944</v>
+        <v>1119932</v>
       </c>
       <c r="L125" s="11">
-        <v>1119932</v>
+        <v>1036598</v>
       </c>
       <c r="M125" s="11">
-        <v>1036598</v>
+        <v>1230720</v>
       </c>
       <c r="N125" s="11">
-        <v>1230720</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>934971</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>39</v>
       </c>
@@ -4663,44 +4663,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
-        <v>545243</v>
+        <v>566002</v>
       </c>
       <c r="F127" s="13">
-        <v>566002</v>
+        <v>638800</v>
       </c>
       <c r="G127" s="13">
-        <v>638800</v>
+        <v>1091907</v>
       </c>
       <c r="H127" s="13">
-        <v>1091907</v>
+        <v>1158649</v>
       </c>
       <c r="I127" s="13">
-        <v>1158649</v>
+        <v>1235576</v>
       </c>
       <c r="J127" s="13">
-        <v>1235576</v>
+        <v>1417342</v>
       </c>
       <c r="K127" s="13">
-        <v>1417342</v>
+        <v>1727005</v>
       </c>
       <c r="L127" s="13">
-        <v>1727005</v>
+        <v>1505836</v>
       </c>
       <c r="M127" s="13">
-        <v>1505836</v>
+        <v>1466928</v>
       </c>
       <c r="N127" s="13">
-        <v>1466928</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1636166</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4715,7 +4715,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4730,7 +4730,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4745,7 +4745,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>48</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4797,7 +4797,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>29</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>32</v>
       </c>
@@ -4859,23 +4859,23 @@
       <c r="I134" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J134" s="11" t="s">
-        <v>31</v>
+      <c r="J134" s="11">
+        <v>15472</v>
       </c>
       <c r="K134" s="11">
-        <v>15472</v>
+        <v>18960</v>
       </c>
       <c r="L134" s="11">
-        <v>18960</v>
+        <v>19085</v>
       </c>
       <c r="M134" s="11">
-        <v>19085</v>
+        <v>6112133</v>
       </c>
       <c r="N134" s="11">
-        <v>6112133</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+        <v>447937500</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>34</v>
       </c>
@@ -4898,23 +4898,23 @@
       <c r="I135" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J135" s="9" t="s">
-        <v>31</v>
+      <c r="J135" s="9">
+        <v>2479707</v>
       </c>
       <c r="K135" s="9">
-        <v>2479707</v>
+        <v>2801127</v>
       </c>
       <c r="L135" s="9">
-        <v>2801127</v>
+        <v>3697130</v>
       </c>
       <c r="M135" s="9">
-        <v>3697130</v>
+        <v>965827</v>
       </c>
       <c r="N135" s="9">
-        <v>965827</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+        <v>843554</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>35</v>
       </c>
@@ -4923,37 +4923,37 @@
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
-        <v>819587</v>
+        <v>759117</v>
       </c>
       <c r="F136" s="11">
-        <v>759117</v>
+        <v>728149</v>
       </c>
       <c r="G136" s="11">
-        <v>728149</v>
+        <v>662877</v>
       </c>
       <c r="H136" s="11">
-        <v>662877</v>
+        <v>1208771</v>
       </c>
       <c r="I136" s="11">
-        <v>1208771</v>
+        <v>3148</v>
       </c>
       <c r="J136" s="11">
-        <v>3148</v>
+        <v>480902</v>
       </c>
       <c r="K136" s="11">
-        <v>480902</v>
+        <v>551354</v>
       </c>
       <c r="L136" s="11">
-        <v>551354</v>
+        <v>630784</v>
       </c>
       <c r="M136" s="11">
-        <v>630784</v>
+        <v>1349030</v>
       </c>
       <c r="N136" s="11">
-        <v>1349030</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1014497</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>36</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>37</v>
       </c>
@@ -5001,37 +5001,37 @@
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>1945</v>
+        <v>1716</v>
       </c>
       <c r="F138" s="11">
-        <v>1716</v>
+        <v>1531</v>
       </c>
       <c r="G138" s="11">
-        <v>1531</v>
+        <v>2055</v>
       </c>
       <c r="H138" s="11">
-        <v>2055</v>
+        <v>2427</v>
       </c>
       <c r="I138" s="11">
-        <v>2427</v>
+        <v>3746</v>
       </c>
       <c r="J138" s="11">
-        <v>3746</v>
+        <v>3441</v>
       </c>
       <c r="K138" s="11">
-        <v>3441</v>
+        <v>4135</v>
       </c>
       <c r="L138" s="11">
-        <v>4135</v>
+        <v>5763</v>
       </c>
       <c r="M138" s="11">
-        <v>5763</v>
+        <v>5628</v>
       </c>
       <c r="N138" s="11">
-        <v>5628</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>39</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5085,7 +5085,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -5100,7 +5100,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -5115,7 +5115,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>53</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5167,7 +5167,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>29</v>
       </c>
@@ -5184,12 +5184,12 @@
       <c r="G145" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H145" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I145" s="9">
+      <c r="H145" s="9">
         <v>4120914</v>
       </c>
+      <c r="I145" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J145" s="9" t="s">
         <v>31</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>32</v>
       </c>
@@ -5226,26 +5226,26 @@
       <c r="H146" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I146" s="11" t="s">
-        <v>31</v>
+      <c r="I146" s="11">
+        <v>210298</v>
       </c>
       <c r="J146" s="11">
-        <v>210298</v>
+        <v>85266</v>
       </c>
       <c r="K146" s="11">
-        <v>85266</v>
+        <v>484043</v>
       </c>
       <c r="L146" s="11">
-        <v>484043</v>
+        <v>716787</v>
       </c>
       <c r="M146" s="11">
-        <v>716787</v>
+        <v>30300</v>
       </c>
       <c r="N146" s="11">
-        <v>30300</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27186</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>34</v>
       </c>
@@ -5265,26 +5265,26 @@
       <c r="H147" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I147" s="9" t="s">
-        <v>31</v>
+      <c r="I147" s="9">
+        <v>4036092</v>
       </c>
       <c r="J147" s="9">
-        <v>4036092</v>
+        <v>16064346</v>
       </c>
       <c r="K147" s="9">
-        <v>16064346</v>
+        <v>7123077</v>
       </c>
       <c r="L147" s="9">
-        <v>7123077</v>
+        <v>7830112</v>
       </c>
       <c r="M147" s="9">
-        <v>7830112</v>
+        <v>-5599</v>
       </c>
       <c r="N147" s="9">
-        <v>-5599</v>
-      </c>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+        <v>34007</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>35</v>
       </c>
@@ -5293,37 +5293,37 @@
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
-        <v>1243872</v>
+        <v>1683695</v>
       </c>
       <c r="F148" s="11">
-        <v>1683695</v>
+        <v>2401099</v>
       </c>
       <c r="G148" s="11">
-        <v>2401099</v>
+        <v>2865385</v>
       </c>
       <c r="H148" s="11">
-        <v>2865385</v>
+        <v>-1529838</v>
       </c>
       <c r="I148" s="11">
-        <v>-1529838</v>
+        <v>-3422310</v>
       </c>
       <c r="J148" s="11">
-        <v>-3422310</v>
+        <v>2116493</v>
       </c>
       <c r="K148" s="11">
-        <v>2116493</v>
+        <v>1200773</v>
       </c>
       <c r="L148" s="11">
-        <v>1200773</v>
+        <v>1108157</v>
       </c>
       <c r="M148" s="11">
-        <v>1108157</v>
+        <v>10822</v>
       </c>
       <c r="N148" s="11">
-        <v>10822</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>36</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>37</v>
       </c>
@@ -5371,37 +5371,37 @@
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
-        <v>2994</v>
+        <v>1967</v>
       </c>
       <c r="F150" s="11">
-        <v>1967</v>
+        <v>4439</v>
       </c>
       <c r="G150" s="11">
-        <v>4439</v>
+        <v>4818</v>
       </c>
       <c r="H150" s="11">
-        <v>4818</v>
+        <v>4510</v>
       </c>
       <c r="I150" s="11">
-        <v>4510</v>
+        <v>8725</v>
       </c>
       <c r="J150" s="11">
-        <v>8725</v>
+        <v>6019</v>
       </c>
       <c r="K150" s="11">
-        <v>6019</v>
+        <v>11610</v>
       </c>
       <c r="L150" s="11">
-        <v>11610</v>
+        <v>3714</v>
       </c>
       <c r="M150" s="11">
-        <v>3714</v>
+        <v>-1419</v>
       </c>
       <c r="N150" s="11">
-        <v>-1419</v>
-      </c>
-    </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12732</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>39</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5455,7 +5455,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5470,7 +5470,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5485,7 +5485,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>54</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -5537,7 +5537,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>29</v>
       </c>
@@ -5554,12 +5554,12 @@
       <c r="G157" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H157" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I157" s="9">
+      <c r="H157" s="9">
         <v>3938909</v>
       </c>
+      <c r="I157" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J157" s="9" t="s">
         <v>31</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>32</v>
       </c>
@@ -5596,26 +5596,26 @@
       <c r="H158" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I158" s="11" t="s">
-        <v>31</v>
+      <c r="I158" s="11">
+        <v>218110</v>
       </c>
       <c r="J158" s="11">
-        <v>218110</v>
+        <v>247400</v>
       </c>
       <c r="K158" s="11">
-        <v>247400</v>
+        <v>478261</v>
       </c>
       <c r="L158" s="11">
-        <v>478261</v>
+        <v>-18402174</v>
       </c>
       <c r="M158" s="11">
-        <v>-18402174</v>
+        <v>30426</v>
       </c>
       <c r="N158" s="11">
-        <v>30426</v>
-      </c>
-    </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27054</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>34</v>
       </c>
@@ -5635,26 +5635,26 @@
       <c r="H159" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I159" s="9" t="s">
-        <v>31</v>
+      <c r="I159" s="9">
+        <v>4138865</v>
       </c>
       <c r="J159" s="9">
-        <v>4138865</v>
+        <v>6422424</v>
       </c>
       <c r="K159" s="9">
-        <v>6422424</v>
+        <v>5077956</v>
       </c>
       <c r="L159" s="9">
-        <v>5077956</v>
+        <v>4646826</v>
       </c>
       <c r="M159" s="9">
-        <v>4646826</v>
+        <v>-658</v>
       </c>
       <c r="N159" s="9">
-        <v>-658</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31316</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>35</v>
       </c>
@@ -5663,37 +5663,37 @@
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
-        <v>3167208</v>
+        <v>1843548</v>
       </c>
       <c r="F160" s="11">
-        <v>1843548</v>
+        <v>2730959</v>
       </c>
       <c r="G160" s="11">
-        <v>2730959</v>
+        <v>2318490</v>
       </c>
       <c r="H160" s="11">
-        <v>2318490</v>
+        <v>-193824</v>
       </c>
       <c r="I160" s="11">
-        <v>-193824</v>
+        <v>-4511580</v>
       </c>
       <c r="J160" s="11">
-        <v>-4511580</v>
+        <v>1789178</v>
       </c>
       <c r="K160" s="11">
-        <v>1789178</v>
+        <v>856012</v>
       </c>
       <c r="L160" s="11">
-        <v>856012</v>
+        <v>1087258</v>
       </c>
       <c r="M160" s="11">
-        <v>1087258</v>
+        <v>11457</v>
       </c>
       <c r="N160" s="11">
-        <v>11457</v>
-      </c>
-    </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>36</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>37</v>
       </c>
@@ -5741,37 +5741,37 @@
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
-        <v>3357</v>
+        <v>2633</v>
       </c>
       <c r="F162" s="11">
-        <v>2633</v>
+        <v>2638</v>
       </c>
       <c r="G162" s="11">
-        <v>2638</v>
+        <v>4150</v>
       </c>
       <c r="H162" s="11">
-        <v>4150</v>
+        <v>4457</v>
       </c>
       <c r="I162" s="11">
-        <v>4457</v>
+        <v>4537</v>
       </c>
       <c r="J162" s="11">
-        <v>4537</v>
+        <v>4047</v>
       </c>
       <c r="K162" s="11">
-        <v>4047</v>
+        <v>3004</v>
       </c>
       <c r="L162" s="11">
-        <v>3004</v>
+        <v>4313</v>
       </c>
       <c r="M162" s="11">
-        <v>4313</v>
+        <v>2556</v>
       </c>
       <c r="N162" s="11">
-        <v>2556</v>
-      </c>
-    </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4877</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>39</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5825,7 +5825,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -5840,7 +5840,7 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -5855,7 +5855,7 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B167" s="7" t="s">
         <v>55</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5907,7 +5907,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>29</v>
       </c>
@@ -5924,12 +5924,12 @@
       <c r="G169" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H169" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I169" s="9">
+      <c r="H169" s="9">
         <v>2919328</v>
       </c>
+      <c r="I169" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="J169" s="9" t="s">
         <v>31</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>32</v>
       </c>
@@ -5966,26 +5966,26 @@
       <c r="H170" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I170" s="11" t="s">
-        <v>31</v>
+      <c r="I170" s="11">
+        <v>15472</v>
       </c>
       <c r="J170" s="11">
-        <v>15472</v>
+        <v>18960</v>
       </c>
       <c r="K170" s="11">
-        <v>18960</v>
+        <v>19085</v>
       </c>
       <c r="L170" s="11">
-        <v>19085</v>
+        <v>6112133</v>
       </c>
       <c r="M170" s="11">
-        <v>6112133</v>
+        <v>447937500</v>
       </c>
       <c r="N170" s="11">
-        <v>447937500</v>
-      </c>
-    </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17855</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>34</v>
       </c>
@@ -6005,26 +6005,26 @@
       <c r="H171" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I171" s="9" t="s">
-        <v>31</v>
+      <c r="I171" s="9">
+        <v>2479707</v>
       </c>
       <c r="J171" s="9">
-        <v>2479707</v>
+        <v>2801146</v>
       </c>
       <c r="K171" s="9">
-        <v>2801146</v>
+        <v>3697130</v>
       </c>
       <c r="L171" s="9">
-        <v>3697130</v>
+        <v>965827</v>
       </c>
       <c r="M171" s="9">
-        <v>965827</v>
+        <v>843554</v>
       </c>
       <c r="N171" s="9">
-        <v>843554</v>
-      </c>
-    </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1482331</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>35</v>
       </c>
@@ -6041,29 +6041,29 @@
       <c r="G172" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H172" s="11" t="s">
-        <v>31</v>
+      <c r="H172" s="11">
+        <v>3148</v>
       </c>
       <c r="I172" s="11">
-        <v>3148</v>
+        <v>480902</v>
       </c>
       <c r="J172" s="11">
-        <v>480902</v>
+        <v>551354</v>
       </c>
       <c r="K172" s="11">
-        <v>551354</v>
+        <v>630784</v>
       </c>
       <c r="L172" s="11">
-        <v>630784</v>
+        <v>1349030</v>
       </c>
       <c r="M172" s="11">
-        <v>1349030</v>
+        <v>1014497</v>
       </c>
       <c r="N172" s="11">
-        <v>1014497</v>
-      </c>
-    </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1203036</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>36</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>37</v>
       </c>
@@ -6117,29 +6117,29 @@
       <c r="G174" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H174" s="11" t="s">
-        <v>31</v>
+      <c r="H174" s="11">
+        <v>3746</v>
       </c>
       <c r="I174" s="11">
-        <v>3746</v>
+        <v>3441</v>
       </c>
       <c r="J174" s="11">
-        <v>3441</v>
+        <v>4135</v>
       </c>
       <c r="K174" s="11">
-        <v>4135</v>
+        <v>5763</v>
       </c>
       <c r="L174" s="11">
-        <v>5763</v>
+        <v>5628</v>
       </c>
       <c r="M174" s="11">
-        <v>5628</v>
+        <v>3936</v>
       </c>
       <c r="N174" s="11">
-        <v>3936</v>
-      </c>
-    </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6088</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>39</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -6193,7 +6193,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -6208,7 +6208,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -6223,7 +6223,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B179" s="7" t="s">
         <v>56</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -6275,7 +6275,7 @@
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>57</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>58</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>59</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>60</v>
       </c>
@@ -6405,13 +6405,13 @@
         <v>0</v>
       </c>
       <c r="I184" s="11">
+        <v>23</v>
+      </c>
+      <c r="J184" s="11">
+        <v>-23</v>
+      </c>
+      <c r="K184" s="11">
         <v>0</v>
-      </c>
-      <c r="J184" s="11">
-        <v>23</v>
-      </c>
-      <c r="K184" s="11">
-        <v>-23</v>
       </c>
       <c r="L184" s="11">
         <v>0</v>
@@ -6423,155 +6423,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9">
-        <v>8495</v>
+        <v>22305</v>
       </c>
       <c r="F185" s="9">
-        <v>22305</v>
+        <v>25079</v>
       </c>
       <c r="G185" s="9">
-        <v>25079</v>
+        <v>27324</v>
       </c>
       <c r="H185" s="9">
-        <v>27324</v>
+        <v>33022</v>
       </c>
       <c r="I185" s="9">
-        <v>33022</v>
+        <v>26460</v>
       </c>
       <c r="J185" s="9">
-        <v>26460</v>
+        <v>35460</v>
       </c>
       <c r="K185" s="9">
-        <v>35460</v>
+        <v>19593</v>
       </c>
       <c r="L185" s="9">
-        <v>19593</v>
+        <v>46225</v>
       </c>
       <c r="M185" s="9">
-        <v>46225</v>
+        <v>-50220</v>
       </c>
       <c r="N185" s="9">
-        <v>-50220</v>
-      </c>
-    </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+        <v>123503</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11">
-        <v>2641</v>
+        <v>2359</v>
       </c>
       <c r="F186" s="11">
-        <v>2359</v>
+        <v>3121</v>
       </c>
       <c r="G186" s="11">
-        <v>3121</v>
+        <v>28</v>
       </c>
       <c r="H186" s="11">
-        <v>28</v>
+        <v>5983</v>
       </c>
       <c r="I186" s="11">
-        <v>5983</v>
+        <v>3152</v>
       </c>
       <c r="J186" s="11">
-        <v>3152</v>
+        <v>2545</v>
       </c>
       <c r="K186" s="11">
-        <v>2545</v>
+        <v>1905</v>
       </c>
       <c r="L186" s="11">
-        <v>1905</v>
+        <v>5950</v>
       </c>
       <c r="M186" s="11">
-        <v>5950</v>
+        <v>7464</v>
       </c>
       <c r="N186" s="11">
-        <v>7464</v>
-      </c>
-    </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7514</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="9">
-        <v>5381</v>
+        <v>17531</v>
       </c>
       <c r="F187" s="9">
-        <v>17531</v>
+        <v>6516</v>
       </c>
       <c r="G187" s="9">
-        <v>6516</v>
+        <v>6659</v>
       </c>
       <c r="H187" s="9">
-        <v>6659</v>
+        <v>7613</v>
       </c>
       <c r="I187" s="9">
-        <v>7613</v>
+        <v>6933</v>
       </c>
       <c r="J187" s="9">
-        <v>6933</v>
+        <v>10239</v>
       </c>
       <c r="K187" s="9">
-        <v>10239</v>
+        <v>13351</v>
       </c>
       <c r="L187" s="9">
-        <v>13351</v>
+        <v>13166</v>
       </c>
       <c r="M187" s="9">
-        <v>13166</v>
+        <v>12263</v>
       </c>
       <c r="N187" s="9">
-        <v>12263</v>
-      </c>
-    </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16224</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11">
-        <v>59773</v>
+        <v>66746</v>
       </c>
       <c r="F188" s="11">
-        <v>66746</v>
+        <v>92276</v>
       </c>
       <c r="G188" s="11">
-        <v>92276</v>
+        <v>93289</v>
       </c>
       <c r="H188" s="11">
-        <v>93289</v>
+        <v>118671</v>
       </c>
       <c r="I188" s="11">
-        <v>118671</v>
+        <v>-131067</v>
       </c>
       <c r="J188" s="11">
-        <v>-131067</v>
+        <v>328101</v>
       </c>
       <c r="K188" s="11">
-        <v>328101</v>
+        <v>41903</v>
       </c>
       <c r="L188" s="11">
-        <v>41903</v>
+        <v>159022</v>
       </c>
       <c r="M188" s="11">
-        <v>159022</v>
+        <v>285578</v>
       </c>
       <c r="N188" s="11">
-        <v>285578</v>
-      </c>
-    </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+        <v>221113</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>65</v>
       </c>
@@ -6608,81 +6608,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11">
-        <v>164769</v>
+        <v>85433</v>
       </c>
       <c r="F190" s="11">
-        <v>85433</v>
+        <v>19856</v>
       </c>
       <c r="G190" s="11">
-        <v>19856</v>
+        <v>60143</v>
       </c>
       <c r="H190" s="11">
-        <v>60143</v>
+        <v>26760</v>
       </c>
       <c r="I190" s="11">
-        <v>26760</v>
+        <v>278959</v>
       </c>
       <c r="J190" s="11">
-        <v>278959</v>
+        <v>-152304</v>
       </c>
       <c r="K190" s="11">
-        <v>-152304</v>
+        <v>188708</v>
       </c>
       <c r="L190" s="11">
-        <v>188708</v>
+        <v>80099</v>
       </c>
       <c r="M190" s="11">
-        <v>80099</v>
+        <v>29770</v>
       </c>
       <c r="N190" s="11">
-        <v>29770</v>
-      </c>
-    </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+        <v>49489</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
       <c r="E191" s="15">
-        <v>241059</v>
+        <v>194374</v>
       </c>
       <c r="F191" s="15">
-        <v>194374</v>
+        <v>146848</v>
       </c>
       <c r="G191" s="15">
-        <v>146848</v>
+        <v>187443</v>
       </c>
       <c r="H191" s="15">
-        <v>187443</v>
+        <v>192049</v>
       </c>
       <c r="I191" s="15">
-        <v>192049</v>
+        <v>184460</v>
       </c>
       <c r="J191" s="15">
-        <v>184460</v>
+        <v>224018</v>
       </c>
       <c r="K191" s="15">
-        <v>224018</v>
+        <v>265460</v>
       </c>
       <c r="L191" s="15">
-        <v>265460</v>
+        <v>304462</v>
       </c>
       <c r="M191" s="15">
-        <v>304462</v>
+        <v>284855</v>
       </c>
       <c r="N191" s="15">
-        <v>284855</v>
-      </c>
-    </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+        <v>417843</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -6697,7 +6697,7 @@
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -6712,7 +6712,7 @@
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -6727,7 +6727,7 @@
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
     </row>
-    <row r="195" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B195" s="7" t="s">
         <v>67</v>
       </c>
@@ -6744,7 +6744,7 @@
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -6759,7 +6759,7 @@
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
         <v>68</v>
       </c>
@@ -6778,7 +6778,7 @@
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
         <v>70</v>
       </c>
@@ -6797,7 +6797,7 @@
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>72</v>
       </c>
@@ -6816,7 +6816,7 @@
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
         <v>74</v>
       </c>
@@ -6835,7 +6835,7 @@
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>76</v>
       </c>
@@ -6846,7 +6846,7 @@
       <c r="E201" s="9"/>
       <c r="F201" s="9"/>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
         <v>76</v>
       </c>
@@ -6857,7 +6857,7 @@
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" s="8" t="s">
         <v>76</v>
       </c>
@@ -6868,7 +6868,7 @@
       <c r="E203" s="9"/>
       <c r="F203" s="9"/>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="10" t="s">
         <v>80</v>
       </c>
@@ -6879,7 +6879,7 @@
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
         <v>82</v>
       </c>
@@ -6890,7 +6890,7 @@
       <c r="E205" s="9"/>
       <c r="F205" s="9"/>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
         <v>84</v>
       </c>
@@ -6901,7 +6901,7 @@
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
         <v>86</v>
       </c>
@@ -6912,7 +6912,7 @@
       <c r="E207" s="9"/>
       <c r="F207" s="9"/>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
         <v>88</v>
       </c>
@@ -6923,7 +6923,7 @@
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
         <v>89</v>
       </c>
@@ -6934,7 +6934,7 @@
       <c r="E209" s="9"/>
       <c r="F209" s="9"/>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="10" t="s">
         <v>91</v>
       </c>
@@ -6945,7 +6945,7 @@
       <c r="E210" s="11"/>
       <c r="F210" s="11"/>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211" s="8" t="s">
         <v>93</v>
       </c>
